--- a/COVID-19-TW-PlaceCode.xlsx
+++ b/COVID-19-TW-PlaceCode.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="73">
   <si>
     <t xml:space="preserve">name                  </t>
   </si>
@@ -851,288 +851,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CJ25"/>
+  <dimension ref="A1:CH25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="CG25" sqref="CG25:CH25"/>
+    <sheetView tabSelected="1" topLeftCell="BF1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="7" customWidth="1"/>
-    <col min="5" max="11" width="9" style="7"/>
-    <col min="12" max="12" width="9" style="7" customWidth="1"/>
-    <col min="13" max="14" width="8.875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="8.75" style="7" customWidth="1"/>
-    <col min="16" max="69" width="9" style="7"/>
-    <col min="70" max="70" width="10.375" customWidth="1"/>
-    <col min="71" max="71" width="9.875" customWidth="1"/>
-    <col min="72" max="72" width="9.125" customWidth="1"/>
-    <col min="73" max="73" width="10.125" customWidth="1"/>
-    <col min="87" max="88" width="10.875" style="6"/>
+    <col min="4" max="10" width="9" style="7"/>
+    <col min="11" max="11" width="9" style="7" customWidth="1"/>
+    <col min="12" max="13" width="8.875" style="7" customWidth="1"/>
+    <col min="14" max="67" width="9" style="7"/>
+    <col min="68" max="68" width="10.375" customWidth="1"/>
+    <col min="69" max="69" width="10.5" customWidth="1"/>
+    <col min="70" max="70" width="9.125" customWidth="1"/>
+    <col min="71" max="71" width="10.125" customWidth="1"/>
+    <col min="85" max="86" width="10.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="D1" s="2">
-        <v>43850</v>
+        <v>43852</v>
       </c>
       <c r="E1" s="2">
-        <v>43851</v>
+        <v>43853</v>
       </c>
       <c r="F1" s="2">
-        <v>43852</v>
+        <v>43854</v>
       </c>
       <c r="G1" s="2">
-        <v>43853</v>
+        <v>43855</v>
       </c>
       <c r="H1" s="2">
-        <v>43854</v>
+        <v>43856</v>
       </c>
       <c r="I1" s="2">
-        <v>43855</v>
+        <v>43857</v>
       </c>
       <c r="J1" s="2">
-        <v>43856</v>
+        <v>43858</v>
       </c>
       <c r="K1" s="2">
-        <v>43857</v>
+        <v>43859</v>
       </c>
       <c r="L1" s="2">
-        <v>43858</v>
+        <v>43860</v>
       </c>
       <c r="M1" s="2">
-        <v>43859</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43860</v>
+        <v>43861</v>
+      </c>
+      <c r="N1" s="8">
+        <v>43862</v>
       </c>
       <c r="O1" s="8">
-        <v>43861</v>
+        <v>43863</v>
       </c>
       <c r="P1" s="8">
-        <v>43862</v>
+        <v>43864</v>
       </c>
       <c r="Q1" s="8">
-        <v>43863</v>
+        <v>43865</v>
       </c>
       <c r="R1" s="8">
-        <v>43864</v>
+        <v>43866</v>
       </c>
       <c r="S1" s="8">
-        <v>43865</v>
+        <v>43867</v>
       </c>
       <c r="T1" s="8">
-        <v>43866</v>
+        <v>43868</v>
       </c>
       <c r="U1" s="8">
-        <v>43867</v>
+        <v>43869</v>
       </c>
       <c r="V1" s="8">
-        <v>43868</v>
+        <v>43870</v>
       </c>
       <c r="W1" s="8">
-        <v>43869</v>
+        <v>43871</v>
       </c>
       <c r="X1" s="8">
-        <v>43870</v>
+        <v>43872</v>
       </c>
       <c r="Y1" s="8">
-        <v>43871</v>
+        <v>43873</v>
       </c>
       <c r="Z1" s="8">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="AA1" s="8">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="AB1" s="8">
-        <v>43874</v>
+        <v>43876</v>
       </c>
       <c r="AC1" s="8">
-        <v>43875</v>
+        <v>43877</v>
       </c>
       <c r="AD1" s="8">
-        <v>43876</v>
+        <v>43878</v>
       </c>
       <c r="AE1" s="8">
-        <v>43877</v>
+        <v>43879</v>
       </c>
       <c r="AF1" s="8">
-        <v>43878</v>
+        <v>43880</v>
       </c>
       <c r="AG1" s="8">
-        <v>43879</v>
+        <v>43881</v>
       </c>
       <c r="AH1" s="8">
-        <v>43880</v>
+        <v>43882</v>
       </c>
       <c r="AI1" s="8">
-        <v>43881</v>
+        <v>43883</v>
       </c>
       <c r="AJ1" s="8">
-        <v>43882</v>
+        <v>43884</v>
       </c>
       <c r="AK1" s="8">
-        <v>43883</v>
+        <v>43885</v>
       </c>
       <c r="AL1" s="8">
-        <v>43884</v>
+        <v>43886</v>
       </c>
       <c r="AM1" s="8">
-        <v>43885</v>
+        <v>43887</v>
       </c>
       <c r="AN1" s="8">
-        <v>43886</v>
+        <v>43888</v>
       </c>
       <c r="AO1" s="8">
-        <v>43887</v>
+        <v>43889</v>
       </c>
       <c r="AP1" s="8">
-        <v>43888</v>
+        <v>43890</v>
       </c>
       <c r="AQ1" s="8">
-        <v>43889</v>
+        <v>43891</v>
       </c>
       <c r="AR1" s="8">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="AS1" s="8">
-        <v>43891</v>
+        <v>43893</v>
       </c>
       <c r="AT1" s="8">
-        <v>43892</v>
+        <v>43894</v>
       </c>
       <c r="AU1" s="8">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="AV1" s="8">
-        <v>43894</v>
+        <v>43896</v>
       </c>
       <c r="AW1" s="8">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="AX1" s="8">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="AY1" s="8">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="AZ1" s="8">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="BA1" s="8">
-        <v>43899</v>
+        <v>43901</v>
       </c>
       <c r="BB1" s="8">
-        <v>43900</v>
+        <v>43902</v>
       </c>
       <c r="BC1" s="8">
-        <v>43901</v>
+        <v>43903</v>
       </c>
       <c r="BD1" s="8">
-        <v>43902</v>
+        <v>43904</v>
       </c>
       <c r="BE1" s="8">
-        <v>43903</v>
+        <v>43905</v>
       </c>
       <c r="BF1" s="8">
-        <v>43904</v>
+        <v>43906</v>
       </c>
       <c r="BG1" s="8">
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="BH1" s="8">
-        <v>43906</v>
+        <v>43908</v>
       </c>
       <c r="BI1" s="8">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="BJ1" s="8">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="BK1" s="8">
-        <v>43909</v>
+        <v>43911</v>
       </c>
       <c r="BL1" s="8">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="BM1" s="8">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="BN1" s="8">
-        <v>43912</v>
+        <v>43914</v>
       </c>
       <c r="BO1" s="8">
-        <v>43913</v>
-      </c>
-      <c r="BP1" s="8">
-        <v>43914</v>
-      </c>
-      <c r="BQ1" s="8">
         <v>43915</v>
       </c>
+      <c r="BP1" s="2">
+        <v>43919</v>
+      </c>
+      <c r="BQ1" s="2">
+        <v>43920</v>
+      </c>
       <c r="BR1" s="2">
-        <v>43919</v>
+        <v>43921</v>
       </c>
       <c r="BS1" s="2">
-        <v>43920</v>
+        <v>43922</v>
       </c>
       <c r="BT1" s="2">
-        <v>43921</v>
+        <v>43923</v>
       </c>
       <c r="BU1" s="2">
-        <v>43922</v>
+        <v>43924</v>
       </c>
       <c r="BV1" s="2">
-        <v>43923</v>
+        <v>43925</v>
       </c>
       <c r="BW1" s="2">
-        <v>43924</v>
+        <v>43926</v>
       </c>
       <c r="BX1" s="2">
-        <v>43925</v>
+        <v>43927</v>
       </c>
       <c r="BY1" s="2">
-        <v>43926</v>
+        <v>43928</v>
       </c>
       <c r="BZ1" s="2">
-        <v>43927</v>
+        <v>43929</v>
       </c>
       <c r="CA1" s="2">
-        <v>43928</v>
+        <v>43930</v>
       </c>
       <c r="CB1" s="2">
-        <v>43929</v>
+        <v>43931</v>
       </c>
       <c r="CC1" s="2">
-        <v>43930</v>
+        <v>43932</v>
       </c>
       <c r="CD1" s="2">
-        <v>43931</v>
+        <v>43933</v>
       </c>
       <c r="CE1" s="2">
-        <v>43932</v>
+        <v>43934</v>
       </c>
       <c r="CF1" s="2">
-        <v>43933</v>
+        <v>43935</v>
       </c>
       <c r="CG1" s="2">
-        <v>43934</v>
+        <v>43936</v>
       </c>
       <c r="CH1" s="2">
-        <v>43935</v>
-      </c>
-      <c r="CI1" s="2">
-        <v>43936</v>
-      </c>
-      <c r="CJ1" s="2">
         <v>43937</v>
       </c>
     </row>
-    <row r="2" spans="1:88" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:86" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1391,14 +1383,8 @@
       <c r="CH2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="CI2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="CJ2" s="5" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="3" spans="1:88" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:86" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1418,13 +1404,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="10">
         <v>1</v>
       </c>
       <c r="I3" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="10">
         <v>2</v>
@@ -1460,13 +1446,13 @@
         <v>2</v>
       </c>
       <c r="U3" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V3" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W3" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X3" s="10">
         <v>7</v>
@@ -1523,13 +1509,13 @@
         <v>7</v>
       </c>
       <c r="AP3" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ3" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AR3" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS3" s="10">
         <v>9</v>
@@ -1559,73 +1545,73 @@
         <v>9</v>
       </c>
       <c r="BB3" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC3" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD3" s="10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BE3" s="10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BF3" s="10">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BG3" s="10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BH3" s="10">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="BI3" s="10">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="BJ3" s="10">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="BK3" s="10">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="BL3" s="10">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="BM3" s="10">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="BN3" s="10">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="BO3" s="10">
-        <v>52</v>
-      </c>
-      <c r="BP3" s="10">
-        <v>58</v>
-      </c>
-      <c r="BQ3" s="10">
         <v>63</v>
       </c>
-      <c r="BR3" s="11">
+      <c r="BP3" s="11">
         <v>83</v>
       </c>
+      <c r="BQ3" s="4">
+        <v>84</v>
+      </c>
+      <c r="BR3" s="4">
+        <v>91</v>
+      </c>
       <c r="BS3" s="4">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="BT3" s="4">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="BU3" s="4">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="BV3" s="4">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="BW3" s="4">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="BX3" s="4">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="BY3" s="4">
         <v>107</v>
@@ -1634,31 +1620,25 @@
         <v>107</v>
       </c>
       <c r="CA3" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="CB3" s="4">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="CC3" s="4">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="CD3" s="4">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="CE3" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="CF3" s="4">
         <v>112</v>
       </c>
-      <c r="CG3" s="4">
-        <v>112</v>
-      </c>
-      <c r="CH3" s="4">
-        <v>112</v>
-      </c>
     </row>
-    <row r="4" spans="1:88" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:86" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1699,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O4" s="10">
         <v>2</v>
@@ -1759,10 +1739,10 @@
         <v>2</v>
       </c>
       <c r="AH4" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI4" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ4" s="10">
         <v>4</v>
@@ -1822,52 +1802,52 @@
         <v>4</v>
       </c>
       <c r="BC4" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD4" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BE4" s="10">
         <v>5</v>
       </c>
       <c r="BF4" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG4" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BH4" s="10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BI4" s="10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BJ4" s="10">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BK4" s="10">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BL4" s="10">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BM4" s="10">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="BN4" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BO4" s="10">
-        <v>24</v>
-      </c>
-      <c r="BP4" s="10">
-        <v>25</v>
-      </c>
-      <c r="BQ4" s="10">
         <v>26</v>
       </c>
-      <c r="BR4" s="11">
+      <c r="BP4" s="11">
         <v>32</v>
+      </c>
+      <c r="BQ4" s="4">
+        <v>33</v>
+      </c>
+      <c r="BR4" s="4">
+        <v>33</v>
       </c>
       <c r="BS4" s="4">
         <v>33</v>
@@ -1876,19 +1856,19 @@
         <v>33</v>
       </c>
       <c r="BU4" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BV4" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BW4" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BX4" s="4">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="BY4" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BZ4" s="4">
         <v>37</v>
@@ -1911,14 +1891,8 @@
       <c r="CF4" s="4">
         <v>37</v>
       </c>
-      <c r="CG4" s="4">
-        <v>37</v>
-      </c>
-      <c r="CH4" s="4">
-        <v>37</v>
-      </c>
     </row>
-    <row r="5" spans="1:88" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:86" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1980,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="U5" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="10">
         <v>1</v>
@@ -2073,10 +2047,10 @@
         <v>1</v>
       </c>
       <c r="AZ5" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA5" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB5" s="10">
         <v>2</v>
@@ -2094,40 +2068,40 @@
         <v>2</v>
       </c>
       <c r="BG5" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH5" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BI5" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BJ5" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BK5" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BL5" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BM5" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BN5" s="10">
         <v>9</v>
       </c>
       <c r="BO5" s="10">
-        <v>9</v>
-      </c>
-      <c r="BP5" s="10">
-        <v>9</v>
-      </c>
-      <c r="BQ5" s="10">
         <v>11</v>
       </c>
-      <c r="BR5" s="11">
+      <c r="BP5" s="11">
         <v>12</v>
+      </c>
+      <c r="BQ5" s="4">
+        <v>13</v>
+      </c>
+      <c r="BR5" s="4">
+        <v>13</v>
       </c>
       <c r="BS5" s="4">
         <v>13</v>
@@ -2145,10 +2119,10 @@
         <v>13</v>
       </c>
       <c r="BX5" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BY5" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BZ5" s="4">
         <v>14</v>
@@ -2171,14 +2145,8 @@
       <c r="CF5" s="4">
         <v>14</v>
       </c>
-      <c r="CG5" s="4">
-        <v>14</v>
-      </c>
-      <c r="CH5" s="4">
-        <v>14</v>
-      </c>
     </row>
-    <row r="6" spans="1:88" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:86" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2189,7 +2157,7 @@
         <v>51</v>
       </c>
       <c r="D6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
@@ -2198,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="10">
         <v>2</v>
@@ -2351,49 +2319,49 @@
         <v>2</v>
       </c>
       <c r="BF6" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG6" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BH6" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BI6" s="10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BJ6" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BK6" s="10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BL6" s="10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BM6" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BN6" s="10">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BO6" s="10">
-        <v>12</v>
-      </c>
-      <c r="BP6" s="10">
-        <v>14</v>
-      </c>
-      <c r="BQ6" s="10">
         <v>15</v>
       </c>
-      <c r="BR6" s="11">
+      <c r="BP6" s="11">
         <v>24</v>
       </c>
+      <c r="BQ6" s="4">
+        <v>25</v>
+      </c>
+      <c r="BR6" s="4">
+        <v>26</v>
+      </c>
       <c r="BS6" s="4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BT6" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BU6" s="4">
         <v>27</v>
@@ -2408,10 +2376,10 @@
         <v>27</v>
       </c>
       <c r="BY6" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BZ6" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CA6" s="4">
         <v>28</v>
@@ -2420,25 +2388,19 @@
         <v>28</v>
       </c>
       <c r="CC6" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CD6" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CE6" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CF6" s="4">
-        <v>29</v>
-      </c>
-      <c r="CG6" s="4">
         <v>30</v>
       </c>
-      <c r="CH6" s="4">
-        <v>30</v>
-      </c>
     </row>
-    <row r="7" spans="1:88" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:86" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2596,10 +2558,10 @@
         <v>0</v>
       </c>
       <c r="BA7" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC7" s="10">
         <v>1</v>
@@ -2638,15 +2600,15 @@
         <v>1</v>
       </c>
       <c r="BO7" s="10">
-        <v>1</v>
-      </c>
-      <c r="BP7" s="10">
-        <v>1</v>
-      </c>
-      <c r="BQ7" s="10">
-        <v>2</v>
-      </c>
-      <c r="BR7" s="11">
+        <v>2</v>
+      </c>
+      <c r="BP7" s="11">
+        <v>3</v>
+      </c>
+      <c r="BQ7" s="4">
+        <v>3</v>
+      </c>
+      <c r="BR7" s="4">
         <v>3</v>
       </c>
       <c r="BS7" s="4">
@@ -2665,10 +2627,10 @@
         <v>3</v>
       </c>
       <c r="BX7" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BY7" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BZ7" s="4">
         <v>6</v>
@@ -2691,14 +2653,8 @@
       <c r="CF7" s="4">
         <v>6</v>
       </c>
-      <c r="CG7" s="4">
-        <v>6</v>
-      </c>
-      <c r="CH7" s="4">
-        <v>6</v>
-      </c>
     </row>
-    <row r="8" spans="1:88" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:86" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2877,16 +2833,16 @@
         <v>0</v>
       </c>
       <c r="BH8" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI8" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ8" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BK8" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BL8" s="10">
         <v>4</v>
@@ -2895,40 +2851,40 @@
         <v>4</v>
       </c>
       <c r="BN8" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO8" s="10">
-        <v>4</v>
-      </c>
-      <c r="BP8" s="10">
-        <v>5</v>
-      </c>
-      <c r="BQ8" s="10">
         <v>6</v>
       </c>
-      <c r="BR8" s="11">
+      <c r="BP8" s="11">
         <v>6</v>
       </c>
+      <c r="BQ8" s="4">
+        <v>7</v>
+      </c>
+      <c r="BR8" s="4">
+        <v>8</v>
+      </c>
       <c r="BS8" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT8" s="4">
         <v>8</v>
       </c>
       <c r="BU8" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BV8" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BW8" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BX8" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BY8" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BZ8" s="4">
         <v>11</v>
@@ -2951,14 +2907,8 @@
       <c r="CF8" s="4">
         <v>11</v>
       </c>
-      <c r="CG8" s="4">
-        <v>11</v>
-      </c>
-      <c r="CH8" s="4">
-        <v>11</v>
-      </c>
     </row>
-    <row r="9" spans="1:88" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:86" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -3158,15 +3108,15 @@
         <v>0</v>
       </c>
       <c r="BO9" s="10">
-        <v>0</v>
-      </c>
-      <c r="BP9" s="10">
-        <v>0</v>
-      </c>
-      <c r="BQ9" s="10">
-        <v>1</v>
-      </c>
-      <c r="BR9" s="11">
+        <v>1</v>
+      </c>
+      <c r="BP9" s="11">
+        <v>3</v>
+      </c>
+      <c r="BQ9" s="4">
+        <v>3</v>
+      </c>
+      <c r="BR9" s="4">
         <v>3</v>
       </c>
       <c r="BS9" s="4">
@@ -3211,14 +3161,8 @@
       <c r="CF9" s="4">
         <v>3</v>
       </c>
-      <c r="CG9" s="4">
-        <v>3</v>
-      </c>
-      <c r="CH9" s="4">
-        <v>3</v>
-      </c>
     </row>
-    <row r="10" spans="1:88" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:86" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -3319,25 +3263,25 @@
         <v>0</v>
       </c>
       <c r="AH10" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI10" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ10" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK10" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AL10" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AM10" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AN10" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO10" s="10">
         <v>9</v>
@@ -3358,10 +3302,10 @@
         <v>9</v>
       </c>
       <c r="AU10" s="10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV10" s="10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AW10" s="10">
         <v>11</v>
@@ -3388,70 +3332,70 @@
         <v>11</v>
       </c>
       <c r="BE10" s="10">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BF10" s="10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BG10" s="10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BH10" s="10">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="BI10" s="10">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="BJ10" s="10">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="BK10" s="10">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="BL10" s="10">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="BM10" s="10">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="BN10" s="10">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="BO10" s="10">
-        <v>51</v>
-      </c>
-      <c r="BP10" s="10">
-        <v>55</v>
-      </c>
-      <c r="BQ10" s="10">
         <v>59</v>
       </c>
-      <c r="BR10" s="11">
+      <c r="BP10" s="11">
         <v>70</v>
       </c>
+      <c r="BQ10" s="4">
+        <v>72</v>
+      </c>
+      <c r="BR10" s="4">
+        <v>75</v>
+      </c>
       <c r="BS10" s="4">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="BT10" s="4">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BU10" s="4">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="BV10" s="4">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="BW10" s="4">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="BX10" s="4">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="BY10" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BZ10" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="CA10" s="4">
         <v>86</v>
@@ -3463,22 +3407,16 @@
         <v>86</v>
       </c>
       <c r="CD10" s="4">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="CE10" s="4">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="CF10" s="4">
         <v>88</v>
       </c>
-      <c r="CG10" s="4">
-        <v>88</v>
-      </c>
-      <c r="CH10" s="4">
-        <v>88</v>
-      </c>
     </row>
-    <row r="11" spans="1:88" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:86" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3540,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="U11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" s="10">
         <v>1</v>
@@ -3600,31 +3538,31 @@
         <v>1</v>
       </c>
       <c r="AO11" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP11" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AQ11" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AR11" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS11" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AT11" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU11" s="10">
         <v>9</v>
       </c>
       <c r="AV11" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW11" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX11" s="10">
         <v>10</v>
@@ -3633,10 +3571,10 @@
         <v>10</v>
       </c>
       <c r="AZ11" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA11" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB11" s="10">
         <v>11</v>
@@ -3657,88 +3595,82 @@
         <v>11</v>
       </c>
       <c r="BH11" s="10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BI11" s="10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BJ11" s="10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BK11" s="10">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BL11" s="10">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BM11" s="10">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="BN11" s="10">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BO11" s="10">
-        <v>22</v>
-      </c>
-      <c r="BP11" s="10">
         <v>24</v>
       </c>
-      <c r="BQ11" s="10">
-        <v>24</v>
-      </c>
-      <c r="BR11" s="11">
+      <c r="BP11" s="11">
         <v>30</v>
       </c>
+      <c r="BQ11" s="4">
+        <v>31</v>
+      </c>
+      <c r="BR11" s="4">
+        <v>32</v>
+      </c>
       <c r="BS11" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BT11" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BU11" s="4">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BV11" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BW11" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BX11" s="4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="BY11" s="4">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="BZ11" s="4">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="CA11" s="4">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="CB11" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="CC11" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="CD11" s="4">
         <v>44</v>
       </c>
       <c r="CE11" s="4">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="CF11" s="4">
-        <v>44</v>
-      </c>
-      <c r="CG11" s="4">
         <v>48</v>
       </c>
-      <c r="CH11" s="4">
-        <v>48</v>
-      </c>
     </row>
-    <row r="12" spans="1:88" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:86" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -3905,10 +3837,10 @@
         <v>0</v>
       </c>
       <c r="BD12" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE12" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF12" s="10">
         <v>1</v>
@@ -3932,31 +3864,31 @@
         <v>1</v>
       </c>
       <c r="BM12" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BN12" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO12" s="10">
-        <v>2</v>
-      </c>
-      <c r="BP12" s="10">
-        <v>3</v>
-      </c>
-      <c r="BQ12" s="10">
         <v>4</v>
       </c>
-      <c r="BR12" s="11">
+      <c r="BP12" s="11">
         <v>4</v>
       </c>
+      <c r="BQ12" s="4">
+        <v>4</v>
+      </c>
+      <c r="BR12" s="4">
+        <v>5</v>
+      </c>
       <c r="BS12" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BT12" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BU12" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BV12" s="4">
         <v>6</v>
@@ -3991,14 +3923,8 @@
       <c r="CF12" s="4">
         <v>6</v>
       </c>
-      <c r="CG12" s="4">
-        <v>6</v>
-      </c>
-      <c r="CH12" s="4">
-        <v>6</v>
-      </c>
     </row>
-    <row r="13" spans="1:88" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:86" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -4060,10 +3986,10 @@
         <v>0</v>
       </c>
       <c r="U13" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" s="10">
         <v>1</v>
@@ -4200,13 +4126,13 @@
       <c r="BO13" s="10">
         <v>1</v>
       </c>
-      <c r="BP13" s="10">
-        <v>1</v>
-      </c>
-      <c r="BQ13" s="10">
-        <v>1</v>
-      </c>
-      <c r="BR13" s="11">
+      <c r="BP13" s="11">
+        <v>2</v>
+      </c>
+      <c r="BQ13" s="4">
+        <v>2</v>
+      </c>
+      <c r="BR13" s="4">
         <v>2</v>
       </c>
       <c r="BS13" s="4">
@@ -4251,14 +4177,8 @@
       <c r="CF13" s="4">
         <v>2</v>
       </c>
-      <c r="CG13" s="4">
-        <v>2</v>
-      </c>
-      <c r="CH13" s="4">
-        <v>2</v>
-      </c>
     </row>
-    <row r="14" spans="1:88" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:86" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -4434,10 +4354,10 @@
         <v>0</v>
       </c>
       <c r="BG14" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH14" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI14" s="10">
         <v>1</v>
@@ -4455,18 +4375,18 @@
         <v>1</v>
       </c>
       <c r="BN14" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO14" s="10">
-        <v>1</v>
-      </c>
-      <c r="BP14" s="10">
-        <v>2</v>
-      </c>
-      <c r="BQ14" s="10">
         <v>3</v>
       </c>
-      <c r="BR14" s="11">
+      <c r="BP14" s="11">
+        <v>3</v>
+      </c>
+      <c r="BQ14" s="4">
+        <v>3</v>
+      </c>
+      <c r="BR14" s="4">
         <v>3</v>
       </c>
       <c r="BS14" s="4">
@@ -4511,14 +4431,8 @@
       <c r="CF14" s="4">
         <v>3</v>
       </c>
-      <c r="CG14" s="4">
-        <v>3</v>
-      </c>
-      <c r="CH14" s="4">
-        <v>3</v>
-      </c>
     </row>
-    <row r="15" spans="1:88" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:86" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4547,7 +4461,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="10">
         <v>1</v>
@@ -4559,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O15" s="10">
         <v>2</v>
@@ -4619,10 +4533,10 @@
         <v>2</v>
       </c>
       <c r="AH15" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI15" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ15" s="10">
         <v>5</v>
@@ -4703,49 +4617,49 @@
         <v>5</v>
       </c>
       <c r="BJ15" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BK15" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BL15" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BM15" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BN15" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BO15" s="10">
-        <v>8</v>
-      </c>
-      <c r="BP15" s="10">
-        <v>9</v>
-      </c>
-      <c r="BQ15" s="10">
         <v>10</v>
       </c>
-      <c r="BR15" s="11">
+      <c r="BP15" s="11">
         <v>14</v>
       </c>
+      <c r="BQ15" s="4">
+        <v>14</v>
+      </c>
+      <c r="BR15" s="4">
+        <v>16</v>
+      </c>
       <c r="BS15" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BT15" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BU15" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BV15" s="4">
         <v>17</v>
       </c>
       <c r="BW15" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BX15" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BY15" s="4">
         <v>18</v>
@@ -4771,14 +4685,8 @@
       <c r="CF15" s="4">
         <v>18</v>
       </c>
-      <c r="CG15" s="4">
-        <v>18</v>
-      </c>
-      <c r="CH15" s="4">
-        <v>18</v>
-      </c>
     </row>
-    <row r="16" spans="1:88" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:86" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -4819,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O16" s="10">
         <v>2</v>
@@ -4980,13 +4888,13 @@
       <c r="BO16" s="10">
         <v>2</v>
       </c>
-      <c r="BP16" s="10">
-        <v>2</v>
-      </c>
-      <c r="BQ16" s="10">
-        <v>2</v>
-      </c>
-      <c r="BR16" s="11">
+      <c r="BP16" s="11">
+        <v>2</v>
+      </c>
+      <c r="BQ16" s="4">
+        <v>2</v>
+      </c>
+      <c r="BR16" s="4">
         <v>2</v>
       </c>
       <c r="BS16" s="4">
@@ -5031,14 +4939,8 @@
       <c r="CF16" s="4">
         <v>2</v>
       </c>
-      <c r="CG16" s="4">
-        <v>2</v>
-      </c>
-      <c r="CH16" s="4">
-        <v>2</v>
-      </c>
     </row>
-    <row r="17" spans="1:86" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:84" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -5211,22 +5113,22 @@
         <v>0</v>
       </c>
       <c r="BF17" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG17" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH17" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI17" s="10">
         <v>2</v>
       </c>
       <c r="BJ17" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BK17" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL17" s="10">
         <v>3</v>
@@ -5240,13 +5142,13 @@
       <c r="BO17" s="10">
         <v>3</v>
       </c>
-      <c r="BP17" s="10">
-        <v>3</v>
-      </c>
-      <c r="BQ17" s="10">
-        <v>3</v>
-      </c>
-      <c r="BR17" s="11">
+      <c r="BP17" s="11">
+        <v>4</v>
+      </c>
+      <c r="BQ17" s="4">
+        <v>4</v>
+      </c>
+      <c r="BR17" s="4">
         <v>4</v>
       </c>
       <c r="BS17" s="4">
@@ -5291,14 +5193,8 @@
       <c r="CF17" s="4">
         <v>4</v>
       </c>
-      <c r="CG17" s="4">
-        <v>4</v>
-      </c>
-      <c r="CH17" s="4">
-        <v>4</v>
-      </c>
     </row>
-    <row r="18" spans="1:86" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:84" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -5500,29 +5396,29 @@
       <c r="BO18" s="10">
         <v>0</v>
       </c>
-      <c r="BP18" s="10">
-        <v>0</v>
-      </c>
-      <c r="BQ18" s="10">
-        <v>0</v>
-      </c>
-      <c r="BR18" s="11">
+      <c r="BP18" s="11">
+        <v>0</v>
+      </c>
+      <c r="BQ18" s="4">
+        <v>0</v>
+      </c>
+      <c r="BR18" s="4">
         <v>0</v>
       </c>
       <c r="BS18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU18" s="4">
         <v>1</v>
       </c>
       <c r="BV18" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BW18" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BX18" s="4">
         <v>2</v>
@@ -5551,14 +5447,8 @@
       <c r="CF18" s="4">
         <v>2</v>
       </c>
-      <c r="CG18" s="4">
-        <v>2</v>
-      </c>
-      <c r="CH18" s="4">
-        <v>2</v>
-      </c>
     </row>
-    <row r="19" spans="1:86" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:84" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5746,34 +5636,34 @@
         <v>0</v>
       </c>
       <c r="BK19" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL19" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM19" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BN19" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BO19" s="10">
-        <v>3</v>
-      </c>
-      <c r="BP19" s="10">
         <v>5</v>
       </c>
-      <c r="BQ19" s="10">
-        <v>5</v>
-      </c>
-      <c r="BR19" s="11">
+      <c r="BP19" s="11">
         <v>6</v>
       </c>
+      <c r="BQ19" s="4">
+        <v>6</v>
+      </c>
+      <c r="BR19" s="4">
+        <v>6</v>
+      </c>
       <c r="BS19" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BT19" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BU19" s="4">
         <v>7</v>
@@ -5811,14 +5701,8 @@
       <c r="CF19" s="4">
         <v>7</v>
       </c>
-      <c r="CG19" s="4">
-        <v>7</v>
-      </c>
-      <c r="CH19" s="4">
-        <v>7</v>
-      </c>
     </row>
-    <row r="20" spans="1:86" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:84" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -6020,13 +5904,13 @@
       <c r="BO20" s="10">
         <v>0</v>
       </c>
-      <c r="BP20" s="10">
-        <v>0</v>
-      </c>
-      <c r="BQ20" s="10">
-        <v>0</v>
-      </c>
-      <c r="BR20" s="11">
+      <c r="BP20" s="11">
+        <v>0</v>
+      </c>
+      <c r="BQ20" s="4">
+        <v>0</v>
+      </c>
+      <c r="BR20" s="4">
         <v>0</v>
       </c>
       <c r="BS20" s="4">
@@ -6071,14 +5955,8 @@
       <c r="CF20" s="4">
         <v>0</v>
       </c>
-      <c r="CG20" s="4">
-        <v>0</v>
-      </c>
-      <c r="CH20" s="4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:86" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:84" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -6280,13 +6158,13 @@
       <c r="BO21" s="10">
         <v>0</v>
       </c>
-      <c r="BP21" s="10">
-        <v>0</v>
-      </c>
-      <c r="BQ21" s="10">
-        <v>0</v>
-      </c>
-      <c r="BR21" s="11">
+      <c r="BP21" s="11">
+        <v>0</v>
+      </c>
+      <c r="BQ21" s="4">
+        <v>0</v>
+      </c>
+      <c r="BR21" s="4">
         <v>0</v>
       </c>
       <c r="BS21" s="4">
@@ -6331,14 +6209,8 @@
       <c r="CF21" s="4">
         <v>0</v>
       </c>
-      <c r="CG21" s="4">
-        <v>0</v>
-      </c>
-      <c r="CH21" s="4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:86" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:84" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -6540,13 +6412,13 @@
       <c r="BO22" s="10">
         <v>0</v>
       </c>
-      <c r="BP22" s="10">
-        <v>0</v>
-      </c>
-      <c r="BQ22" s="10">
-        <v>0</v>
-      </c>
-      <c r="BR22" s="11">
+      <c r="BP22" s="11">
+        <v>0</v>
+      </c>
+      <c r="BQ22" s="4">
+        <v>0</v>
+      </c>
+      <c r="BR22" s="4">
         <v>0</v>
       </c>
       <c r="BS22" s="4">
@@ -6591,14 +6463,8 @@
       <c r="CF22" s="4">
         <v>0</v>
       </c>
-      <c r="CG22" s="4">
-        <v>0</v>
-      </c>
-      <c r="CH22" s="4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:86" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:84" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -6800,13 +6666,13 @@
       <c r="BO23" s="10">
         <v>0</v>
       </c>
-      <c r="BP23" s="10">
-        <v>0</v>
-      </c>
-      <c r="BQ23" s="10">
-        <v>0</v>
-      </c>
-      <c r="BR23" s="11">
+      <c r="BP23" s="11">
+        <v>0</v>
+      </c>
+      <c r="BQ23" s="4">
+        <v>0</v>
+      </c>
+      <c r="BR23" s="4">
         <v>0</v>
       </c>
       <c r="BS23" s="4">
@@ -6851,14 +6717,8 @@
       <c r="CF23" s="4">
         <v>0</v>
       </c>
-      <c r="CG23" s="4">
-        <v>0</v>
-      </c>
-      <c r="CH23" s="4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:86" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:84" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -7060,13 +6920,13 @@
       <c r="BO24" s="10">
         <v>0</v>
       </c>
-      <c r="BP24" s="10">
-        <v>0</v>
-      </c>
-      <c r="BQ24" s="10">
-        <v>0</v>
-      </c>
-      <c r="BR24" s="11">
+      <c r="BP24" s="11">
+        <v>0</v>
+      </c>
+      <c r="BQ24" s="4">
+        <v>0</v>
+      </c>
+      <c r="BR24" s="4">
         <v>0</v>
       </c>
       <c r="BS24" s="4">
@@ -7111,23 +6971,17 @@
       <c r="CF24" s="4">
         <v>0</v>
       </c>
-      <c r="CG24" s="4">
-        <v>0</v>
-      </c>
-      <c r="CH24" s="4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:86" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:84" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D25" s="9">
-        <f>SUM(D3:D24)</f>
-        <v>0</v>
+        <f t="shared" ref="D25:BO25" si="0">SUM(D3:D24)</f>
+        <v>1</v>
       </c>
       <c r="E25" s="9">
-        <f t="shared" ref="E25:BQ25" si="0">SUM(E3:E24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F25" s="9">
@@ -7136,7 +6990,7 @@
       </c>
       <c r="G25" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H25" s="9">
         <f t="shared" si="0"/>
@@ -7144,27 +6998,27 @@
       </c>
       <c r="I25" s="9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J25" s="9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K25" s="9">
+        <f t="shared" ref="K25" si="1">SUM(K3:K24)</f>
+        <v>5</v>
+      </c>
+      <c r="L25" s="9">
+        <f t="shared" ref="L25" si="2">SUM(L3:L24)</f>
+        <v>5</v>
+      </c>
+      <c r="M25" s="9">
+        <f t="shared" ref="M25" si="3">SUM(M3:M24)</f>
+        <v>5</v>
+      </c>
+      <c r="N25" s="9">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L25" s="9">
-        <f t="shared" ref="L25" si="1">SUM(L3:L24)</f>
-        <v>5</v>
-      </c>
-      <c r="M25" s="9">
-        <f t="shared" ref="M25" si="2">SUM(M3:M24)</f>
-        <v>5</v>
-      </c>
-      <c r="N25" s="9">
-        <f t="shared" ref="N25" si="3">SUM(N3:N24)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O25" s="9">
         <f t="shared" si="0"/>
@@ -7192,15 +7046,15 @@
       </c>
       <c r="U25" s="9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="V25" s="9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="W25" s="9">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X25" s="9">
         <f t="shared" si="0"/>
@@ -7244,67 +7098,67 @@
       </c>
       <c r="AH25" s="9">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AI25" s="9">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AJ25" s="9">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AK25" s="9">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AL25" s="9">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AM25" s="9">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN25" s="9">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AO25" s="9">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AP25" s="9">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AQ25" s="9">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AR25" s="9">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AS25" s="9">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AT25" s="9">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AU25" s="9">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AV25" s="9">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AW25" s="9">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AX25" s="9">
         <f t="shared" si="0"/>
@@ -7316,141 +7170,133 @@
       </c>
       <c r="AZ25" s="9">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="BA25" s="9">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="BB25" s="9">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="BC25" s="9">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="BD25" s="9">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="BE25" s="9">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="BF25" s="9">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="BG25" s="9">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="BH25" s="9">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="BI25" s="9">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="BJ25" s="9">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="BK25" s="9">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="BL25" s="9">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="BM25" s="9">
         <f t="shared" si="0"/>
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="BN25" s="9">
         <f t="shared" si="0"/>
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="BO25" s="9">
         <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="BP25" s="9">
-        <f t="shared" si="0"/>
-        <v>216</v>
-      </c>
-      <c r="BQ25" s="9">
-        <f t="shared" si="0"/>
         <v>235</v>
+      </c>
+      <c r="BP25" s="1">
+        <f>SUM(BP3:BP24)</f>
+        <v>298</v>
+      </c>
+      <c r="BQ25" s="1">
+        <f>SUM(BQ3:BQ24)</f>
+        <v>306</v>
       </c>
       <c r="BR25" s="1">
         <f>SUM(BR3:BR24)</f>
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="BS25" s="1">
         <f>SUM(BS3:BS24)</f>
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="BT25" s="1">
-        <f>SUM(BT3:BT24)</f>
-        <v>322</v>
+        <f t="shared" ref="BT25:CF25" si="4">SUM(BT3:BT24)</f>
+        <v>339</v>
       </c>
       <c r="BU25" s="1">
-        <f>SUM(BU3:BU24)</f>
-        <v>329</v>
+        <f t="shared" si="4"/>
+        <v>348</v>
       </c>
       <c r="BV25" s="1">
-        <f t="shared" ref="BV25:CH25" si="4">SUM(BV3:BV24)</f>
-        <v>339</v>
+        <f t="shared" si="4"/>
+        <v>355</v>
       </c>
       <c r="BW25" s="1">
         <f t="shared" si="4"/>
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="BX25" s="1">
         <f t="shared" si="4"/>
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="BY25" s="1">
         <f t="shared" si="4"/>
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="BZ25" s="1">
         <f t="shared" si="4"/>
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="CA25" s="1">
         <f t="shared" si="4"/>
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="CB25" s="1">
         <f t="shared" si="4"/>
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="CC25" s="1">
         <f t="shared" si="4"/>
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="CD25" s="1">
         <f t="shared" si="4"/>
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="CE25" s="1">
         <f t="shared" si="4"/>
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="CF25" s="1">
-        <f t="shared" si="4"/>
-        <v>388</v>
-      </c>
-      <c r="CG25" s="1">
-        <f t="shared" si="4"/>
-        <v>393</v>
-      </c>
-      <c r="CH25" s="1">
         <f t="shared" si="4"/>
         <v>393</v>
       </c>
@@ -7458,7 +7304,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/COVID-19-TW-PlaceCode.xlsx
+++ b/COVID-19-TW-PlaceCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14960" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="13660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CodeBook" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
   <si>
     <t xml:space="preserve">name                  </t>
   </si>
@@ -333,7 +333,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -388,6 +388,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -418,7 +421,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="76">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="已瀏覽過的超連結" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="4" builtinId="9" hidden="1"/>
@@ -465,6 +468,9 @@
     <cellStyle name="已瀏覽過的超連結" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="71" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="超連結" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="5" builtinId="8" hidden="1"/>
@@ -820,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -837,7 +843,7 @@
     <col min="21" max="22" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:25">
       <c r="A1" s="4"/>
       <c r="D1" s="3">
         <v>43919</v>
@@ -896,8 +902,17 @@
       <c r="V1" s="3">
         <v>43937</v>
       </c>
+      <c r="W1" s="3">
+        <v>43938</v>
+      </c>
+      <c r="X1" s="3">
+        <v>43939</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>43940</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" ht="17">
+    <row r="2" spans="1:25" ht="17">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -964,8 +979,17 @@
       <c r="V2" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="W2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" ht="18">
+    <row r="3" spans="1:25" ht="18">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1029,8 +1053,17 @@
       <c r="U3" s="5">
         <v>113</v>
       </c>
+      <c r="V3" s="5">
+        <v>113</v>
+      </c>
+      <c r="W3" s="5">
+        <v>113</v>
+      </c>
+      <c r="X3" s="5">
+        <v>113</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" ht="18">
+    <row r="4" spans="1:25" ht="18">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1094,8 +1127,17 @@
       <c r="U4" s="5">
         <v>37</v>
       </c>
+      <c r="V4" s="5">
+        <v>37</v>
+      </c>
+      <c r="W4" s="5">
+        <v>37</v>
+      </c>
+      <c r="X4" s="5">
+        <v>38</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" ht="18">
+    <row r="5" spans="1:25" ht="18">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1159,8 +1201,17 @@
       <c r="U5" s="5">
         <v>14</v>
       </c>
+      <c r="V5" s="5">
+        <v>14</v>
+      </c>
+      <c r="W5" s="5">
+        <v>14</v>
+      </c>
+      <c r="X5" s="5">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" ht="18">
+    <row r="6" spans="1:25" ht="18">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1224,8 +1275,17 @@
       <c r="U6" s="5">
         <v>30</v>
       </c>
+      <c r="V6" s="5">
+        <v>30</v>
+      </c>
+      <c r="W6" s="5">
+        <v>30</v>
+      </c>
+      <c r="X6" s="5">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" ht="18">
+    <row r="7" spans="1:25" ht="18">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1289,8 +1349,17 @@
       <c r="U7" s="5">
         <v>6</v>
       </c>
+      <c r="V7" s="5">
+        <v>6</v>
+      </c>
+      <c r="W7" s="5">
+        <v>6</v>
+      </c>
+      <c r="X7" s="5">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" ht="18">
+    <row r="8" spans="1:25" ht="18">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1354,8 +1423,17 @@
       <c r="U8" s="5">
         <v>11</v>
       </c>
+      <c r="V8" s="5">
+        <v>11</v>
+      </c>
+      <c r="W8" s="5">
+        <v>11</v>
+      </c>
+      <c r="X8" s="5">
+        <v>11</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" ht="18">
+    <row r="9" spans="1:25" ht="18">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1419,8 +1497,17 @@
       <c r="U9" s="5">
         <v>3</v>
       </c>
+      <c r="V9" s="5">
+        <v>3</v>
+      </c>
+      <c r="W9" s="5">
+        <v>3</v>
+      </c>
+      <c r="X9" s="5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:22" ht="18">
+    <row r="10" spans="1:25" ht="18">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1484,8 +1571,17 @@
       <c r="U10" s="5">
         <v>89</v>
       </c>
+      <c r="V10" s="5">
+        <v>89</v>
+      </c>
+      <c r="W10" s="5">
+        <v>89</v>
+      </c>
+      <c r="X10" s="5">
+        <v>89</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" ht="18">
+    <row r="11" spans="1:25" ht="18">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1549,8 +1645,17 @@
       <c r="U11" s="5">
         <v>48</v>
       </c>
+      <c r="V11" s="5">
+        <v>48</v>
+      </c>
+      <c r="W11" s="5">
+        <v>48</v>
+      </c>
+      <c r="X11" s="5">
+        <v>49</v>
+      </c>
     </row>
-    <row r="12" spans="1:22" ht="18">
+    <row r="12" spans="1:25" ht="18">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1614,8 +1719,17 @@
       <c r="U12" s="5">
         <v>6</v>
       </c>
+      <c r="V12" s="5">
+        <v>6</v>
+      </c>
+      <c r="W12" s="5">
+        <v>6</v>
+      </c>
+      <c r="X12" s="5">
+        <v>6</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" ht="18">
+    <row r="13" spans="1:25" ht="18">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1679,8 +1793,17 @@
       <c r="U13" s="5">
         <v>2</v>
       </c>
+      <c r="V13" s="5">
+        <v>2</v>
+      </c>
+      <c r="W13" s="5">
+        <v>2</v>
+      </c>
+      <c r="X13" s="5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="14" spans="1:22" ht="18">
+    <row r="14" spans="1:25" ht="18">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1744,8 +1867,17 @@
       <c r="U14" s="5">
         <v>3</v>
       </c>
+      <c r="V14" s="5">
+        <v>3</v>
+      </c>
+      <c r="W14" s="5">
+        <v>3</v>
+      </c>
+      <c r="X14" s="5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="15" spans="1:22" ht="18">
+    <row r="15" spans="1:25" ht="18">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1809,8 +1941,17 @@
       <c r="U15" s="5">
         <v>18</v>
       </c>
+      <c r="V15" s="5">
+        <v>18</v>
+      </c>
+      <c r="W15" s="5">
+        <v>18</v>
+      </c>
+      <c r="X15" s="5">
+        <v>18</v>
+      </c>
     </row>
-    <row r="16" spans="1:22" ht="18">
+    <row r="16" spans="1:25" ht="18">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1874,8 +2015,17 @@
       <c r="U16" s="5">
         <v>2</v>
       </c>
+      <c r="V16" s="5">
+        <v>2</v>
+      </c>
+      <c r="W16" s="5">
+        <v>2</v>
+      </c>
+      <c r="X16" s="5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" spans="1:21" ht="18">
+    <row r="17" spans="1:24" ht="18">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1939,8 +2089,17 @@
       <c r="U17" s="5">
         <v>4</v>
       </c>
+      <c r="V17" s="5">
+        <v>4</v>
+      </c>
+      <c r="W17" s="5">
+        <v>4</v>
+      </c>
+      <c r="X17" s="5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:21" ht="18">
+    <row r="18" spans="1:24" ht="18">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -2004,8 +2163,17 @@
       <c r="U18" s="5">
         <v>2</v>
       </c>
+      <c r="V18" s="5">
+        <v>2</v>
+      </c>
+      <c r="W18" s="5">
+        <v>2</v>
+      </c>
+      <c r="X18" s="5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" spans="1:21" ht="18">
+    <row r="19" spans="1:24" ht="18">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2069,8 +2237,17 @@
       <c r="U19" s="5">
         <v>7</v>
       </c>
+      <c r="V19" s="5">
+        <v>7</v>
+      </c>
+      <c r="W19" s="5">
+        <v>7</v>
+      </c>
+      <c r="X19" s="5">
+        <v>8</v>
+      </c>
     </row>
-    <row r="20" spans="1:21" ht="18">
+    <row r="20" spans="1:24" ht="18">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -2134,8 +2311,17 @@
       <c r="U20" s="5">
         <v>0</v>
       </c>
+      <c r="V20" s="5">
+        <v>0</v>
+      </c>
+      <c r="W20" s="5">
+        <v>0</v>
+      </c>
+      <c r="X20" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:21" ht="18">
+    <row r="21" spans="1:24" ht="18">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2199,8 +2385,17 @@
       <c r="U21" s="5">
         <v>0</v>
       </c>
+      <c r="V21" s="5">
+        <v>0</v>
+      </c>
+      <c r="W21" s="5">
+        <v>0</v>
+      </c>
+      <c r="X21" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:21" ht="18">
+    <row r="22" spans="1:24" ht="18">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -2264,8 +2459,17 @@
       <c r="U22" s="5">
         <v>0</v>
       </c>
+      <c r="V22" s="5">
+        <v>0</v>
+      </c>
+      <c r="W22" s="5">
+        <v>0</v>
+      </c>
+      <c r="X22" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:21" ht="18">
+    <row r="23" spans="1:24" ht="18">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -2329,8 +2533,17 @@
       <c r="U23" s="5">
         <v>0</v>
       </c>
+      <c r="V23" s="5">
+        <v>0</v>
+      </c>
+      <c r="W23" s="5">
+        <v>0</v>
+      </c>
+      <c r="X23" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:21" ht="18">
+    <row r="24" spans="1:24" ht="18">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -2394,8 +2607,17 @@
       <c r="U24" s="5">
         <v>0</v>
       </c>
+      <c r="V24" s="5">
+        <v>0</v>
+      </c>
+      <c r="W24" s="5">
+        <v>0</v>
+      </c>
+      <c r="X24" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:21" ht="17">
+    <row r="25" spans="1:24" ht="17">
       <c r="C25" s="1" t="s">
         <v>70</v>
       </c>
@@ -2416,7 +2638,7 @@
         <v>329</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" ref="H25:U25" si="0">SUM(H3:H24)</f>
+        <f t="shared" ref="H25:X25" si="0">SUM(H3:H24)</f>
         <v>339</v>
       </c>
       <c r="I25" s="1">
@@ -2470,6 +2692,18 @@
       <c r="U25" s="1">
         <f t="shared" si="0"/>
         <v>395</v>
+      </c>
+      <c r="V25" s="1">
+        <f t="shared" si="0"/>
+        <v>395</v>
+      </c>
+      <c r="W25" s="1">
+        <f t="shared" si="0"/>
+        <v>395</v>
+      </c>
+      <c r="X25" s="1">
+        <f t="shared" si="0"/>
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/COVID-19-TW-PlaceCode.xlsx
+++ b/COVID-19-TW-PlaceCode.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="73">
   <si>
     <t xml:space="preserve">name                  </t>
   </si>
@@ -247,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -315,6 +315,14 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -333,7 +341,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="76">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -410,8 +418,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -420,8 +429,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="76">
+  <cellStyles count="77">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="已瀏覽過的超連結" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="4" builtinId="9" hidden="1"/>
@@ -471,6 +481,7 @@
     <cellStyle name="已瀏覽過的超連結" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="超連結" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="5" builtinId="8" hidden="1"/>
@@ -826,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AB4" sqref="AB4"/>
+      <selection activeCell="X25" sqref="X25:Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -843,7 +854,7 @@
     <col min="21" max="22" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:28">
       <c r="A1" s="4"/>
       <c r="D1" s="3">
         <v>43919</v>
@@ -911,8 +922,17 @@
       <c r="Y1" s="3">
         <v>43940</v>
       </c>
+      <c r="Z1" s="3">
+        <v>43941</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>43942</v>
+      </c>
+      <c r="AB1" s="3">
+        <v>43943</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" ht="17">
+    <row r="2" spans="1:28" ht="17">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -988,8 +1008,17 @@
       <c r="Y2" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="Z2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" ht="18">
+    <row r="3" spans="1:28" ht="18">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1062,8 +1091,14 @@
       <c r="X3" s="5">
         <v>113</v>
       </c>
+      <c r="Y3" s="5">
+        <v>115</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" ht="18">
+    <row r="4" spans="1:28" ht="18">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1136,8 +1171,14 @@
       <c r="X4" s="5">
         <v>38</v>
       </c>
+      <c r="Y4" s="5">
+        <v>40</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" ht="18">
+    <row r="5" spans="1:28" ht="18">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1210,8 +1251,14 @@
       <c r="X5" s="5">
         <v>14</v>
       </c>
+      <c r="Y5" s="5">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" ht="18">
+    <row r="6" spans="1:28" ht="18">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1284,8 +1331,14 @@
       <c r="X6" s="5">
         <v>30</v>
       </c>
+      <c r="Y6" s="5">
+        <v>39</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" ht="18">
+    <row r="7" spans="1:28" ht="18">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1358,8 +1411,14 @@
       <c r="X7" s="5">
         <v>6</v>
       </c>
+      <c r="Y7" s="5">
+        <v>7</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" ht="18">
+    <row r="8" spans="1:28" ht="18">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1432,8 +1491,14 @@
       <c r="X8" s="5">
         <v>11</v>
       </c>
+      <c r="Y8" s="5">
+        <v>11</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" ht="18">
+    <row r="9" spans="1:28" ht="18">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1506,8 +1571,14 @@
       <c r="X9" s="5">
         <v>3</v>
       </c>
+      <c r="Y9" s="5">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" ht="18">
+    <row r="10" spans="1:28" ht="18">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1580,8 +1651,14 @@
       <c r="X10" s="5">
         <v>89</v>
       </c>
+      <c r="Y10" s="5">
+        <v>90</v>
+      </c>
+      <c r="AA10" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" ht="18">
+    <row r="11" spans="1:28" ht="18">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1654,8 +1731,14 @@
       <c r="X11" s="5">
         <v>49</v>
       </c>
+      <c r="Y11" s="5">
+        <v>50</v>
+      </c>
+      <c r="AA11" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" ht="18">
+    <row r="12" spans="1:28" ht="18">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1728,8 +1811,14 @@
       <c r="X12" s="5">
         <v>6</v>
       </c>
+      <c r="Y12" s="5">
+        <v>6</v>
+      </c>
+      <c r="AA12" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" ht="18">
+    <row r="13" spans="1:28" ht="18">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1802,8 +1891,14 @@
       <c r="X13" s="5">
         <v>2</v>
       </c>
+      <c r="Y13" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" ht="18">
+    <row r="14" spans="1:28" ht="18">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1876,8 +1971,14 @@
       <c r="X14" s="5">
         <v>3</v>
       </c>
+      <c r="Y14" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA14" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" ht="18">
+    <row r="15" spans="1:28" ht="18">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1950,8 +2051,14 @@
       <c r="X15" s="5">
         <v>18</v>
       </c>
+      <c r="Y15" s="5">
+        <v>18</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" ht="18">
+    <row r="16" spans="1:28" ht="18">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2024,8 +2131,14 @@
       <c r="X16" s="5">
         <v>2</v>
       </c>
+      <c r="Y16" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="8" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" ht="18">
+    <row r="17" spans="1:27" ht="18">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2098,8 +2211,14 @@
       <c r="X17" s="5">
         <v>4</v>
       </c>
+      <c r="Y17" s="5">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="8" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" ht="18">
+    <row r="18" spans="1:27" ht="18">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -2172,8 +2291,14 @@
       <c r="X18" s="5">
         <v>2</v>
       </c>
+      <c r="Y18" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="8" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" ht="18">
+    <row r="19" spans="1:27" ht="18">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2246,8 +2371,14 @@
       <c r="X19" s="5">
         <v>8</v>
       </c>
+      <c r="Y19" s="5">
+        <v>11</v>
+      </c>
+      <c r="AA19" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" ht="18">
+    <row r="20" spans="1:27" ht="18">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -2320,8 +2451,14 @@
       <c r="X20" s="5">
         <v>0</v>
       </c>
+      <c r="Y20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="21" spans="1:24" ht="18">
+    <row r="21" spans="1:27" ht="18">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2394,8 +2531,14 @@
       <c r="X21" s="5">
         <v>0</v>
       </c>
+      <c r="Y21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="8" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="22" spans="1:24" ht="18">
+    <row r="22" spans="1:27" ht="18">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -2468,8 +2611,14 @@
       <c r="X22" s="5">
         <v>0</v>
       </c>
+      <c r="Y22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="8" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="23" spans="1:24" ht="18">
+    <row r="23" spans="1:27" ht="18">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -2542,8 +2691,14 @@
       <c r="X23" s="5">
         <v>0</v>
       </c>
+      <c r="Y23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="8" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="24" spans="1:24" ht="18">
+    <row r="24" spans="1:27" ht="18">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -2616,8 +2771,14 @@
       <c r="X24" s="5">
         <v>0</v>
       </c>
+      <c r="Y24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="8" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="25" spans="1:24" ht="17">
+    <row r="25" spans="1:27" ht="17">
       <c r="C25" s="1" t="s">
         <v>70</v>
       </c>
@@ -2638,7 +2799,7 @@
         <v>329</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" ref="H25:X25" si="0">SUM(H3:H24)</f>
+        <f t="shared" ref="H25:Y25" si="0">SUM(H3:H24)</f>
         <v>339</v>
       </c>
       <c r="I25" s="1">
@@ -2704,6 +2865,10 @@
       <c r="X25" s="1">
         <f t="shared" si="0"/>
         <v>398</v>
+      </c>
+      <c r="Y25" s="1">
+        <f t="shared" si="0"/>
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/COVID-19-TW-PlaceCode.xlsx
+++ b/COVID-19-TW-PlaceCode.xlsx
@@ -341,7 +341,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -396,6 +396,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -431,7 +432,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="78">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="已瀏覽過的超連結" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="4" builtinId="9" hidden="1"/>
@@ -482,6 +483,7 @@
     <cellStyle name="已瀏覽過的超連結" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="77" builtinId="9" hidden="1"/>
     <cellStyle name="超連結" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="5" builtinId="8" hidden="1"/>
@@ -839,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25:Y25"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1:AF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1094,6 +1096,9 @@
       <c r="Y3" s="5">
         <v>115</v>
       </c>
+      <c r="Z3" s="5">
+        <v>116</v>
+      </c>
       <c r="AA3" s="8" t="s">
         <v>48</v>
       </c>
@@ -1172,6 +1177,9 @@
         <v>38</v>
       </c>
       <c r="Y4" s="5">
+        <v>40</v>
+      </c>
+      <c r="Z4" s="5">
         <v>40</v>
       </c>
       <c r="AA4" s="8" t="s">
@@ -1254,6 +1262,9 @@
       <c r="Y5" s="5">
         <v>15</v>
       </c>
+      <c r="Z5" s="5">
+        <v>15</v>
+      </c>
       <c r="AA5" s="8" t="s">
         <v>50</v>
       </c>
@@ -1334,6 +1345,9 @@
       <c r="Y6" s="5">
         <v>39</v>
       </c>
+      <c r="Z6" s="5">
+        <v>39</v>
+      </c>
       <c r="AA6" s="8" t="s">
         <v>51</v>
       </c>
@@ -1414,6 +1428,9 @@
       <c r="Y7" s="5">
         <v>7</v>
       </c>
+      <c r="Z7" s="5">
+        <v>7</v>
+      </c>
       <c r="AA7" s="8" t="s">
         <v>52</v>
       </c>
@@ -1494,6 +1511,9 @@
       <c r="Y8" s="5">
         <v>11</v>
       </c>
+      <c r="Z8" s="5">
+        <v>11</v>
+      </c>
       <c r="AA8" s="8" t="s">
         <v>53</v>
       </c>
@@ -1574,6 +1594,9 @@
       <c r="Y9" s="5">
         <v>4</v>
       </c>
+      <c r="Z9" s="5">
+        <v>4</v>
+      </c>
       <c r="AA9" s="8" t="s">
         <v>54</v>
       </c>
@@ -1652,6 +1675,9 @@
         <v>89</v>
       </c>
       <c r="Y10" s="5">
+        <v>90</v>
+      </c>
+      <c r="Z10" s="5">
         <v>90</v>
       </c>
       <c r="AA10" s="8" t="s">
@@ -1734,6 +1760,9 @@
       <c r="Y11" s="5">
         <v>50</v>
       </c>
+      <c r="Z11" s="5">
+        <v>51</v>
+      </c>
       <c r="AA11" s="8" t="s">
         <v>56</v>
       </c>
@@ -1814,6 +1843,9 @@
       <c r="Y12" s="5">
         <v>6</v>
       </c>
+      <c r="Z12" s="5">
+        <v>6</v>
+      </c>
       <c r="AA12" s="8" t="s">
         <v>57</v>
       </c>
@@ -1894,6 +1926,9 @@
       <c r="Y13" s="5">
         <v>2</v>
       </c>
+      <c r="Z13" s="5">
+        <v>2</v>
+      </c>
       <c r="AA13" s="8" t="s">
         <v>58</v>
       </c>
@@ -1974,6 +2009,9 @@
       <c r="Y14" s="5">
         <v>3</v>
       </c>
+      <c r="Z14" s="5">
+        <v>3</v>
+      </c>
       <c r="AA14" s="8" t="s">
         <v>59</v>
       </c>
@@ -2054,6 +2092,9 @@
       <c r="Y15" s="5">
         <v>18</v>
       </c>
+      <c r="Z15" s="5">
+        <v>18</v>
+      </c>
       <c r="AA15" s="8" t="s">
         <v>60</v>
       </c>
@@ -2134,6 +2175,9 @@
       <c r="Y16" s="5">
         <v>2</v>
       </c>
+      <c r="Z16" s="5">
+        <v>2</v>
+      </c>
       <c r="AA16" s="8" t="s">
         <v>61</v>
       </c>
@@ -2214,6 +2258,9 @@
       <c r="Y17" s="5">
         <v>5</v>
       </c>
+      <c r="Z17" s="5">
+        <v>5</v>
+      </c>
       <c r="AA17" s="8" t="s">
         <v>62</v>
       </c>
@@ -2294,6 +2341,9 @@
       <c r="Y18" s="5">
         <v>2</v>
       </c>
+      <c r="Z18" s="5">
+        <v>2</v>
+      </c>
       <c r="AA18" s="8" t="s">
         <v>63</v>
       </c>
@@ -2374,6 +2424,9 @@
       <c r="Y19" s="5">
         <v>11</v>
       </c>
+      <c r="Z19" s="5">
+        <v>11</v>
+      </c>
       <c r="AA19" s="8" t="s">
         <v>64</v>
       </c>
@@ -2454,6 +2507,9 @@
       <c r="Y20" s="5">
         <v>0</v>
       </c>
+      <c r="Z20" s="5">
+        <v>0</v>
+      </c>
       <c r="AA20" s="8" t="s">
         <v>65</v>
       </c>
@@ -2534,6 +2590,9 @@
       <c r="Y21" s="5">
         <v>0</v>
       </c>
+      <c r="Z21" s="5">
+        <v>0</v>
+      </c>
       <c r="AA21" s="8" t="s">
         <v>66</v>
       </c>
@@ -2614,6 +2673,9 @@
       <c r="Y22" s="5">
         <v>0</v>
       </c>
+      <c r="Z22" s="5">
+        <v>0</v>
+      </c>
       <c r="AA22" s="8" t="s">
         <v>67</v>
       </c>
@@ -2694,6 +2756,9 @@
       <c r="Y23" s="5">
         <v>0</v>
       </c>
+      <c r="Z23" s="5">
+        <v>0</v>
+      </c>
       <c r="AA23" s="8" t="s">
         <v>68</v>
       </c>
@@ -2774,6 +2839,9 @@
       <c r="Y24" s="5">
         <v>0</v>
       </c>
+      <c r="Z24" s="5">
+        <v>0</v>
+      </c>
       <c r="AA24" s="8" t="s">
         <v>69</v>
       </c>
@@ -2799,7 +2867,7 @@
         <v>329</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" ref="H25:Y25" si="0">SUM(H3:H24)</f>
+        <f t="shared" ref="H25:Z25" si="0">SUM(H3:H24)</f>
         <v>339</v>
       </c>
       <c r="I25" s="1">
@@ -2869,6 +2937,10 @@
       <c r="Y25" s="1">
         <f t="shared" si="0"/>
         <v>420</v>
+      </c>
+      <c r="Z25" s="1">
+        <f t="shared" si="0"/>
+        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/COVID-19-TW-PlaceCode.xlsx
+++ b/COVID-19-TW-PlaceCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="13660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="13700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CodeBook" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t xml:space="preserve">name                  </t>
   </si>
@@ -247,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -315,14 +315,6 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -341,7 +333,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="78">
+  <cellStyleXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -420,8 +412,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -430,9 +423,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="78">
+  <cellStyles count="79">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="已瀏覽過的超連結" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="4" builtinId="9" hidden="1"/>
@@ -484,6 +476,7 @@
     <cellStyle name="已瀏覽過的超連結" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="超連結" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="5" builtinId="8" hidden="1"/>
@@ -841,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1:AF1048576"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25:AA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1099,8 +1092,8 @@
       <c r="Z3" s="5">
         <v>116</v>
       </c>
-      <c r="AA3" s="8" t="s">
-        <v>48</v>
+      <c r="AA3" s="5">
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="18">
@@ -1182,8 +1175,8 @@
       <c r="Z4" s="5">
         <v>40</v>
       </c>
-      <c r="AA4" s="8" t="s">
-        <v>49</v>
+      <c r="AA4" s="5">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="18">
@@ -1265,8 +1258,8 @@
       <c r="Z5" s="5">
         <v>15</v>
       </c>
-      <c r="AA5" s="8" t="s">
-        <v>50</v>
+      <c r="AA5" s="5">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="18">
@@ -1348,8 +1341,8 @@
       <c r="Z6" s="5">
         <v>39</v>
       </c>
-      <c r="AA6" s="8" t="s">
-        <v>51</v>
+      <c r="AA6" s="5">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="18">
@@ -1431,8 +1424,8 @@
       <c r="Z7" s="5">
         <v>7</v>
       </c>
-      <c r="AA7" s="8" t="s">
-        <v>52</v>
+      <c r="AA7" s="5">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="18">
@@ -1514,8 +1507,8 @@
       <c r="Z8" s="5">
         <v>11</v>
       </c>
-      <c r="AA8" s="8" t="s">
-        <v>53</v>
+      <c r="AA8" s="5">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="18">
@@ -1597,8 +1590,8 @@
       <c r="Z9" s="5">
         <v>4</v>
       </c>
-      <c r="AA9" s="8" t="s">
-        <v>54</v>
+      <c r="AA9" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="18">
@@ -1680,8 +1673,8 @@
       <c r="Z10" s="5">
         <v>90</v>
       </c>
-      <c r="AA10" s="8" t="s">
-        <v>55</v>
+      <c r="AA10" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="18">
@@ -1763,8 +1756,8 @@
       <c r="Z11" s="5">
         <v>51</v>
       </c>
-      <c r="AA11" s="8" t="s">
-        <v>56</v>
+      <c r="AA11" s="5">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="18">
@@ -1846,8 +1839,8 @@
       <c r="Z12" s="5">
         <v>6</v>
       </c>
-      <c r="AA12" s="8" t="s">
-        <v>57</v>
+      <c r="AA12" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="18">
@@ -1929,8 +1922,8 @@
       <c r="Z13" s="5">
         <v>2</v>
       </c>
-      <c r="AA13" s="8" t="s">
-        <v>58</v>
+      <c r="AA13" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="18">
@@ -2012,8 +2005,8 @@
       <c r="Z14" s="5">
         <v>3</v>
       </c>
-      <c r="AA14" s="8" t="s">
-        <v>59</v>
+      <c r="AA14" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="18">
@@ -2095,8 +2088,8 @@
       <c r="Z15" s="5">
         <v>18</v>
       </c>
-      <c r="AA15" s="8" t="s">
-        <v>60</v>
+      <c r="AA15" s="5">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="18">
@@ -2178,8 +2171,8 @@
       <c r="Z16" s="5">
         <v>2</v>
       </c>
-      <c r="AA16" s="8" t="s">
-        <v>61</v>
+      <c r="AA16" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="18">
@@ -2261,8 +2254,8 @@
       <c r="Z17" s="5">
         <v>5</v>
       </c>
-      <c r="AA17" s="8" t="s">
-        <v>62</v>
+      <c r="AA17" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="18">
@@ -2344,8 +2337,8 @@
       <c r="Z18" s="5">
         <v>2</v>
       </c>
-      <c r="AA18" s="8" t="s">
-        <v>63</v>
+      <c r="AA18" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="18">
@@ -2427,8 +2420,8 @@
       <c r="Z19" s="5">
         <v>11</v>
       </c>
-      <c r="AA19" s="8" t="s">
-        <v>64</v>
+      <c r="AA19" s="5">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="18">
@@ -2510,8 +2503,8 @@
       <c r="Z20" s="5">
         <v>0</v>
       </c>
-      <c r="AA20" s="8" t="s">
-        <v>65</v>
+      <c r="AA20" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="18">
@@ -2593,8 +2586,8 @@
       <c r="Z21" s="5">
         <v>0</v>
       </c>
-      <c r="AA21" s="8" t="s">
-        <v>66</v>
+      <c r="AA21" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="18">
@@ -2676,8 +2669,8 @@
       <c r="Z22" s="5">
         <v>0</v>
       </c>
-      <c r="AA22" s="8" t="s">
-        <v>67</v>
+      <c r="AA22" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="18">
@@ -2759,8 +2752,8 @@
       <c r="Z23" s="5">
         <v>0</v>
       </c>
-      <c r="AA23" s="8" t="s">
-        <v>68</v>
+      <c r="AA23" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="18">
@@ -2842,8 +2835,8 @@
       <c r="Z24" s="5">
         <v>0</v>
       </c>
-      <c r="AA24" s="8" t="s">
-        <v>69</v>
+      <c r="AA24" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="17">
@@ -2867,7 +2860,7 @@
         <v>329</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" ref="H25:Z25" si="0">SUM(H3:H24)</f>
+        <f t="shared" ref="H25:AA25" si="0">SUM(H3:H24)</f>
         <v>339</v>
       </c>
       <c r="I25" s="1">
@@ -2941,6 +2934,10 @@
       <c r="Z25" s="1">
         <f t="shared" si="0"/>
         <v>422</v>
+      </c>
+      <c r="AA25" s="1">
+        <f t="shared" si="0"/>
+        <v>425</v>
       </c>
     </row>
   </sheetData>

--- a/COVID-19-TW-PlaceCode.xlsx
+++ b/COVID-19-TW-PlaceCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="13700" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CodeBook" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
   <si>
     <t xml:space="preserve">name                  </t>
   </si>
@@ -247,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -315,6 +315,28 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -333,7 +355,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="79">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -413,8 +435,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -423,8 +447,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="79">
+  <cellStyles count="81">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="已瀏覽過的超連結" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="4" builtinId="9" hidden="1"/>
@@ -477,6 +504,8 @@
     <cellStyle name="已瀏覽過的超連結" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="77" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="超連結" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="5" builtinId="8" hidden="1"/>
@@ -832,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB25"/>
+  <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Z25" sqref="Z25:AA25"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AB25" sqref="AB25:AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -849,7 +878,7 @@
     <col min="21" max="22" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:35">
       <c r="A1" s="4"/>
       <c r="D1" s="3">
         <v>43919</v>
@@ -926,8 +955,17 @@
       <c r="AB1" s="3">
         <v>43943</v>
       </c>
+      <c r="AC1" s="3">
+        <v>43944</v>
+      </c>
+      <c r="AD1" s="3">
+        <v>43945</v>
+      </c>
+      <c r="AE1" s="3">
+        <v>43946</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" ht="17">
+    <row r="2" spans="1:35" ht="17">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1012,8 +1050,19 @@
       <c r="AB2" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="AC2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
     </row>
-    <row r="3" spans="1:28" ht="18">
+    <row r="3" spans="1:35" ht="18">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1095,8 +1144,19 @@
       <c r="AA3" s="5">
         <v>116</v>
       </c>
+      <c r="AB3" s="5">
+        <v>116</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>116</v>
+      </c>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="10"/>
     </row>
-    <row r="4" spans="1:28" ht="18">
+    <row r="4" spans="1:35" ht="18">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1178,8 +1238,19 @@
       <c r="AA4" s="5">
         <v>40</v>
       </c>
+      <c r="AB4" s="5">
+        <v>40</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>40</v>
+      </c>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="10"/>
     </row>
-    <row r="5" spans="1:28" ht="18">
+    <row r="5" spans="1:35" ht="18">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1261,8 +1332,19 @@
       <c r="AA5" s="5">
         <v>16</v>
       </c>
+      <c r="AB5" s="5">
+        <v>16</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>16</v>
+      </c>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="10"/>
     </row>
-    <row r="6" spans="1:28" ht="18">
+    <row r="6" spans="1:35" ht="18">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1344,8 +1426,19 @@
       <c r="AA6" s="5">
         <v>41</v>
       </c>
+      <c r="AB6" s="5">
+        <v>41</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>42</v>
+      </c>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="10"/>
     </row>
-    <row r="7" spans="1:28" ht="18">
+    <row r="7" spans="1:35" ht="18">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1427,8 +1520,19 @@
       <c r="AA7" s="5">
         <v>7</v>
       </c>
+      <c r="AB7" s="5">
+        <v>7</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>7</v>
+      </c>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="10"/>
     </row>
-    <row r="8" spans="1:28" ht="18">
+    <row r="8" spans="1:35" ht="18">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1510,8 +1614,19 @@
       <c r="AA8" s="5">
         <v>11</v>
       </c>
+      <c r="AB8" s="5">
+        <v>11</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>11</v>
+      </c>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="10"/>
     </row>
-    <row r="9" spans="1:28" ht="18">
+    <row r="9" spans="1:35" ht="18">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1593,8 +1708,19 @@
       <c r="AA9" s="5">
         <v>4</v>
       </c>
+      <c r="AB9" s="5">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="10"/>
     </row>
-    <row r="10" spans="1:28" ht="18">
+    <row r="10" spans="1:35" ht="18">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1676,8 +1802,19 @@
       <c r="AA10" s="5">
         <v>90</v>
       </c>
+      <c r="AB10" s="5">
+        <v>90</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>90</v>
+      </c>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="10"/>
     </row>
-    <row r="11" spans="1:28" ht="18">
+    <row r="11" spans="1:35" ht="18">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1759,8 +1896,19 @@
       <c r="AA11" s="5">
         <v>51</v>
       </c>
+      <c r="AB11" s="5">
+        <v>51</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>51</v>
+      </c>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="10"/>
     </row>
-    <row r="12" spans="1:28" ht="18">
+    <row r="12" spans="1:35" ht="18">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1842,8 +1990,19 @@
       <c r="AA12" s="5">
         <v>6</v>
       </c>
+      <c r="AB12" s="5">
+        <v>6</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>6</v>
+      </c>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="10"/>
     </row>
-    <row r="13" spans="1:28" ht="18">
+    <row r="13" spans="1:35" ht="18">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1925,8 +2084,19 @@
       <c r="AA13" s="5">
         <v>2</v>
       </c>
+      <c r="AB13" s="5">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="10"/>
     </row>
-    <row r="14" spans="1:28" ht="18">
+    <row r="14" spans="1:35" ht="18">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2008,8 +2178,19 @@
       <c r="AA14" s="5">
         <v>3</v>
       </c>
+      <c r="AB14" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>3</v>
+      </c>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="10"/>
     </row>
-    <row r="15" spans="1:28" ht="18">
+    <row r="15" spans="1:35" ht="18">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2091,8 +2272,19 @@
       <c r="AA15" s="5">
         <v>18</v>
       </c>
+      <c r="AB15" s="5">
+        <v>18</v>
+      </c>
+      <c r="AC15" s="5">
+        <v>18</v>
+      </c>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="10"/>
     </row>
-    <row r="16" spans="1:28" ht="18">
+    <row r="16" spans="1:35" ht="18">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2174,8 +2366,19 @@
       <c r="AA16" s="5">
         <v>2</v>
       </c>
+      <c r="AB16" s="5">
+        <v>2</v>
+      </c>
+      <c r="AC16" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="10"/>
     </row>
-    <row r="17" spans="1:27" ht="18">
+    <row r="17" spans="1:34" ht="18">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2257,8 +2460,19 @@
       <c r="AA17" s="5">
         <v>5</v>
       </c>
+      <c r="AB17" s="5">
+        <v>5</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>5</v>
+      </c>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="10"/>
     </row>
-    <row r="18" spans="1:27" ht="18">
+    <row r="18" spans="1:34" ht="18">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -2340,8 +2554,19 @@
       <c r="AA18" s="5">
         <v>2</v>
       </c>
+      <c r="AB18" s="5">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="10"/>
     </row>
-    <row r="19" spans="1:27" ht="18">
+    <row r="19" spans="1:34" ht="18">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2423,8 +2648,19 @@
       <c r="AA19" s="5">
         <v>11</v>
       </c>
+      <c r="AB19" s="5">
+        <v>12</v>
+      </c>
+      <c r="AC19" s="5">
+        <v>12</v>
+      </c>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="10"/>
     </row>
-    <row r="20" spans="1:27" ht="18">
+    <row r="20" spans="1:34" ht="18">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -2506,8 +2742,19 @@
       <c r="AA20" s="5">
         <v>0</v>
       </c>
+      <c r="AB20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="10"/>
     </row>
-    <row r="21" spans="1:27" ht="18">
+    <row r="21" spans="1:34" ht="18">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2589,8 +2836,19 @@
       <c r="AA21" s="5">
         <v>0</v>
       </c>
+      <c r="AB21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="10"/>
     </row>
-    <row r="22" spans="1:27" ht="18">
+    <row r="22" spans="1:34" ht="18">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -2672,8 +2930,19 @@
       <c r="AA22" s="5">
         <v>0</v>
       </c>
+      <c r="AB22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="10"/>
     </row>
-    <row r="23" spans="1:27" ht="18">
+    <row r="23" spans="1:34" ht="18">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -2755,8 +3024,19 @@
       <c r="AA23" s="5">
         <v>0</v>
       </c>
+      <c r="AB23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="10"/>
     </row>
-    <row r="24" spans="1:27" ht="18">
+    <row r="24" spans="1:34" ht="18">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -2838,8 +3118,19 @@
       <c r="AA24" s="5">
         <v>0</v>
       </c>
+      <c r="AB24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="10"/>
     </row>
-    <row r="25" spans="1:27" ht="17">
+    <row r="25" spans="1:34" ht="17">
       <c r="C25" s="1" t="s">
         <v>70</v>
       </c>
@@ -2860,7 +3151,7 @@
         <v>329</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" ref="H25:AA25" si="0">SUM(H3:H24)</f>
+        <f t="shared" ref="H25:AC25" si="0">SUM(H3:H24)</f>
         <v>339</v>
       </c>
       <c r="I25" s="1">
@@ -2939,6 +3230,18 @@
         <f t="shared" si="0"/>
         <v>425</v>
       </c>
+      <c r="AB25" s="1">
+        <f t="shared" si="0"/>
+        <v>426</v>
+      </c>
+      <c r="AC25" s="1">
+        <f t="shared" si="0"/>
+        <v>427</v>
+      </c>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/COVID-19-TW-PlaceCode.xlsx
+++ b/COVID-19-TW-PlaceCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CodeBook" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
   <si>
     <t xml:space="preserve">name                  </t>
   </si>
@@ -247,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -316,20 +316,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
@@ -355,7 +341,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -437,8 +423,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -448,10 +437,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="84">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="已瀏覽過的超連結" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="4" builtinId="9" hidden="1"/>
@@ -506,6 +493,9 @@
     <cellStyle name="已瀏覽過的超連結" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="83" builtinId="9" hidden="1"/>
     <cellStyle name="超連結" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="5" builtinId="8" hidden="1"/>
@@ -863,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AB25" sqref="AB25:AC25"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AD25" sqref="AD25:AG25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -964,6 +954,12 @@
       <c r="AE1" s="3">
         <v>43946</v>
       </c>
+      <c r="AF1" s="3">
+        <v>43947</v>
+      </c>
+      <c r="AG1" s="3">
+        <v>43948</v>
+      </c>
     </row>
     <row r="2" spans="1:35" ht="17">
       <c r="A2" t="s">
@@ -1059,8 +1055,14 @@
       <c r="AE2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
+      <c r="AF2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
     </row>
     <row r="3" spans="1:35" ht="18">
       <c r="A3" t="s">
@@ -1150,11 +1152,24 @@
       <c r="AC3" s="5">
         <v>116</v>
       </c>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="10"/>
+      <c r="AD3" s="5">
+        <v>116</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>116</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>116</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>116</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" spans="1:35" ht="18">
       <c r="A4" t="s">
@@ -1244,11 +1259,21 @@
       <c r="AC4" s="5">
         <v>40</v>
       </c>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="10"/>
+      <c r="AD4" s="5">
+        <v>40</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>40</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>40</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>40</v>
+      </c>
+      <c r="AH4" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="5" spans="1:35" ht="18">
       <c r="A5" t="s">
@@ -1338,11 +1363,21 @@
       <c r="AC5" s="5">
         <v>16</v>
       </c>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="10"/>
+      <c r="AD5" s="5">
+        <v>16</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>16</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>16</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>16</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:35" ht="18">
       <c r="A6" t="s">
@@ -1432,11 +1467,21 @@
       <c r="AC6" s="5">
         <v>42</v>
       </c>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="10"/>
+      <c r="AD6" s="5">
+        <v>43</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>44</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>44</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>44</v>
+      </c>
+      <c r="AH6" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:35" ht="18">
       <c r="A7" t="s">
@@ -1526,11 +1571,21 @@
       <c r="AC7" s="5">
         <v>7</v>
       </c>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="10"/>
+      <c r="AD7" s="5">
+        <v>7</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>7</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>7</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>7</v>
+      </c>
+      <c r="AH7" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" spans="1:35" ht="18">
       <c r="A8" t="s">
@@ -1620,11 +1675,21 @@
       <c r="AC8" s="5">
         <v>11</v>
       </c>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="10"/>
+      <c r="AD8" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>11</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>11</v>
+      </c>
+      <c r="AG8" s="5">
+        <v>11</v>
+      </c>
+      <c r="AH8" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="1:35" ht="18">
       <c r="A9" t="s">
@@ -1714,11 +1779,21 @@
       <c r="AC9" s="5">
         <v>4</v>
       </c>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="10"/>
+      <c r="AD9" s="5">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>4</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>4</v>
+      </c>
+      <c r="AH9" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="1:35" ht="18">
       <c r="A10" t="s">
@@ -1808,11 +1883,21 @@
       <c r="AC10" s="5">
         <v>90</v>
       </c>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="10"/>
+      <c r="AD10" s="5">
+        <v>90</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>90</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>90</v>
+      </c>
+      <c r="AG10" s="5">
+        <v>90</v>
+      </c>
+      <c r="AH10" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:35" ht="18">
       <c r="A11" t="s">
@@ -1902,11 +1987,21 @@
       <c r="AC11" s="5">
         <v>51</v>
       </c>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="10"/>
+      <c r="AD11" s="5">
+        <v>51</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>51</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>51</v>
+      </c>
+      <c r="AG11" s="5">
+        <v>51</v>
+      </c>
+      <c r="AH11" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:35" ht="18">
       <c r="A12" t="s">
@@ -1996,11 +2091,21 @@
       <c r="AC12" s="5">
         <v>6</v>
       </c>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="10"/>
+      <c r="AD12" s="5">
+        <v>6</v>
+      </c>
+      <c r="AE12" s="5">
+        <v>6</v>
+      </c>
+      <c r="AF12" s="5">
+        <v>6</v>
+      </c>
+      <c r="AG12" s="5">
+        <v>6</v>
+      </c>
+      <c r="AH12" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:35" ht="18">
       <c r="A13" t="s">
@@ -2090,11 +2195,21 @@
       <c r="AC13" s="5">
         <v>2</v>
       </c>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="8"/>
-      <c r="AH13" s="10"/>
+      <c r="AD13" s="5">
+        <v>2</v>
+      </c>
+      <c r="AE13" s="5">
+        <v>2</v>
+      </c>
+      <c r="AF13" s="5">
+        <v>2</v>
+      </c>
+      <c r="AG13" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH13" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:35" ht="18">
       <c r="A14" t="s">
@@ -2184,11 +2299,21 @@
       <c r="AC14" s="5">
         <v>3</v>
       </c>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="10"/>
+      <c r="AD14" s="5">
+        <v>3</v>
+      </c>
+      <c r="AE14" s="5">
+        <v>3</v>
+      </c>
+      <c r="AF14" s="5">
+        <v>3</v>
+      </c>
+      <c r="AG14" s="5">
+        <v>3</v>
+      </c>
+      <c r="AH14" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" spans="1:35" ht="18">
       <c r="A15" t="s">
@@ -2278,11 +2403,21 @@
       <c r="AC15" s="5">
         <v>18</v>
       </c>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
-      <c r="AG15" s="8"/>
-      <c r="AH15" s="10"/>
+      <c r="AD15" s="5">
+        <v>18</v>
+      </c>
+      <c r="AE15" s="5">
+        <v>18</v>
+      </c>
+      <c r="AF15" s="5">
+        <v>18</v>
+      </c>
+      <c r="AG15" s="5">
+        <v>18</v>
+      </c>
+      <c r="AH15" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:35" ht="18">
       <c r="A16" t="s">
@@ -2372,11 +2507,21 @@
       <c r="AC16" s="5">
         <v>2</v>
       </c>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
-      <c r="AG16" s="8"/>
-      <c r="AH16" s="10"/>
+      <c r="AD16" s="5">
+        <v>2</v>
+      </c>
+      <c r="AE16" s="5">
+        <v>2</v>
+      </c>
+      <c r="AF16" s="5">
+        <v>2</v>
+      </c>
+      <c r="AG16" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH16" s="8" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="17" spans="1:34" ht="18">
       <c r="A17" t="s">
@@ -2466,11 +2611,21 @@
       <c r="AC17" s="5">
         <v>5</v>
       </c>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="10"/>
+      <c r="AD17" s="5">
+        <v>5</v>
+      </c>
+      <c r="AE17" s="5">
+        <v>5</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>5</v>
+      </c>
+      <c r="AG17" s="5">
+        <v>5</v>
+      </c>
+      <c r="AH17" s="8" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="18" spans="1:34" ht="18">
       <c r="A18" t="s">
@@ -2560,11 +2715,21 @@
       <c r="AC18" s="5">
         <v>2</v>
       </c>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="8"/>
-      <c r="AG18" s="8"/>
-      <c r="AH18" s="10"/>
+      <c r="AD18" s="5">
+        <v>2</v>
+      </c>
+      <c r="AE18" s="5">
+        <v>2</v>
+      </c>
+      <c r="AF18" s="5">
+        <v>2</v>
+      </c>
+      <c r="AG18" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH18" s="8" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="19" spans="1:34" ht="18">
       <c r="A19" t="s">
@@ -2654,11 +2819,21 @@
       <c r="AC19" s="5">
         <v>12</v>
       </c>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
-      <c r="AG19" s="8"/>
-      <c r="AH19" s="10"/>
+      <c r="AD19" s="5">
+        <v>12</v>
+      </c>
+      <c r="AE19" s="5">
+        <v>12</v>
+      </c>
+      <c r="AF19" s="5">
+        <v>12</v>
+      </c>
+      <c r="AG19" s="5">
+        <v>12</v>
+      </c>
+      <c r="AH19" s="8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="20" spans="1:34" ht="18">
       <c r="A20" t="s">
@@ -2748,11 +2923,21 @@
       <c r="AC20" s="5">
         <v>0</v>
       </c>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
-      <c r="AG20" s="8"/>
-      <c r="AH20" s="10"/>
+      <c r="AD20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="21" spans="1:34" ht="18">
       <c r="A21" t="s">
@@ -2842,11 +3027,21 @@
       <c r="AC21" s="5">
         <v>0</v>
       </c>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="10"/>
+      <c r="AD21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="22" spans="1:34" ht="18">
       <c r="A22" t="s">
@@ -2936,11 +3131,21 @@
       <c r="AC22" s="5">
         <v>0</v>
       </c>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="10"/>
+      <c r="AD22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="23" spans="1:34" ht="18">
       <c r="A23" t="s">
@@ -3030,11 +3235,21 @@
       <c r="AC23" s="5">
         <v>0</v>
       </c>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
-      <c r="AG23" s="8"/>
-      <c r="AH23" s="10"/>
+      <c r="AD23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="8" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="24" spans="1:34" ht="18">
       <c r="A24" t="s">
@@ -3124,11 +3339,21 @@
       <c r="AC24" s="5">
         <v>0</v>
       </c>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
-      <c r="AG24" s="8"/>
-      <c r="AH24" s="10"/>
+      <c r="AD24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="8" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="25" spans="1:34" ht="17">
       <c r="C25" s="1" t="s">
@@ -3151,7 +3376,7 @@
         <v>329</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" ref="H25:AC25" si="0">SUM(H3:H24)</f>
+        <f t="shared" ref="H25:AG25" si="0">SUM(H3:H24)</f>
         <v>339</v>
       </c>
       <c r="I25" s="1">
@@ -3238,10 +3463,25 @@
         <f t="shared" si="0"/>
         <v>427</v>
       </c>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8"/>
-      <c r="AG25" s="8"/>
+      <c r="AD25" s="1">
+        <f t="shared" si="0"/>
+        <v>428</v>
+      </c>
+      <c r="AE25" s="1">
+        <f t="shared" si="0"/>
+        <v>429</v>
+      </c>
+      <c r="AF25" s="1">
+        <f t="shared" si="0"/>
+        <v>429</v>
+      </c>
+      <c r="AG25" s="1">
+        <f t="shared" si="0"/>
+        <v>429</v>
+      </c>
+      <c r="AH25" s="8" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/COVID-19-TW-PlaceCode.xlsx
+++ b/COVID-19-TW-PlaceCode.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
   <si>
     <t xml:space="preserve">name                  </t>
   </si>
@@ -247,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -315,14 +315,6 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -341,7 +333,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="84">
+  <cellStyleXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -426,8 +418,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -436,9 +430,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="84">
+  <cellStyles count="86">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="已瀏覽過的超連結" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="4" builtinId="9" hidden="1"/>
@@ -496,6 +489,8 @@
     <cellStyle name="已瀏覽過的超連結" xfId="81" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="85" builtinId="9" hidden="1"/>
     <cellStyle name="超連結" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="5" builtinId="8" hidden="1"/>
@@ -851,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI25"/>
+  <dimension ref="A1:AL25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AD25" sqref="AD25:AG25"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AG25" sqref="AG25:AL25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -868,7 +863,7 @@
     <col min="21" max="22" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:38">
       <c r="A1" s="4"/>
       <c r="D1" s="3">
         <v>43919</v>
@@ -960,8 +955,23 @@
       <c r="AG1" s="3">
         <v>43948</v>
       </c>
+      <c r="AH1" s="3">
+        <v>43949</v>
+      </c>
+      <c r="AI1" s="3">
+        <v>43950</v>
+      </c>
+      <c r="AJ1" s="3">
+        <v>43951</v>
+      </c>
+      <c r="AK1" s="3">
+        <v>43952</v>
+      </c>
+      <c r="AL1" s="3">
+        <v>43953</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" ht="17">
+    <row r="2" spans="1:38" ht="17">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1061,10 +1071,23 @@
       <c r="AG2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
+      <c r="AH2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="3" spans="1:35" ht="18">
+    <row r="3" spans="1:38" ht="18">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1164,14 +1187,23 @@
       <c r="AG3" s="5">
         <v>116</v>
       </c>
-      <c r="AH3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI3" s="8" t="s">
-        <v>47</v>
+      <c r="AH3" s="5">
+        <v>116</v>
+      </c>
+      <c r="AI3" s="5">
+        <v>116</v>
+      </c>
+      <c r="AJ3" s="5">
+        <v>116</v>
+      </c>
+      <c r="AK3" s="5">
+        <v>116</v>
+      </c>
+      <c r="AL3" s="5">
+        <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="18">
+    <row r="4" spans="1:38" ht="18">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1271,11 +1303,23 @@
       <c r="AG4" s="5">
         <v>40</v>
       </c>
-      <c r="AH4" s="8" t="s">
-        <v>48</v>
+      <c r="AH4" s="5">
+        <v>40</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>40</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>40</v>
+      </c>
+      <c r="AK4" s="5">
+        <v>40</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="18">
+    <row r="5" spans="1:38" ht="18">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1375,11 +1419,23 @@
       <c r="AG5" s="5">
         <v>16</v>
       </c>
-      <c r="AH5" s="8" t="s">
-        <v>49</v>
+      <c r="AH5" s="5">
+        <v>16</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>16</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>16</v>
+      </c>
+      <c r="AK5" s="5">
+        <v>16</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="18">
+    <row r="6" spans="1:38" ht="18">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1479,11 +1535,23 @@
       <c r="AG6" s="5">
         <v>44</v>
       </c>
-      <c r="AH6" s="8" t="s">
-        <v>50</v>
+      <c r="AH6" s="5">
+        <v>44</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>44</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>44</v>
+      </c>
+      <c r="AK6" s="5">
+        <v>44</v>
+      </c>
+      <c r="AL6" s="5">
+        <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="18">
+    <row r="7" spans="1:38" ht="18">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1583,11 +1651,23 @@
       <c r="AG7" s="5">
         <v>7</v>
       </c>
-      <c r="AH7" s="8" t="s">
-        <v>51</v>
+      <c r="AH7" s="5">
+        <v>7</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>7</v>
+      </c>
+      <c r="AJ7" s="5">
+        <v>7</v>
+      </c>
+      <c r="AK7" s="5">
+        <v>7</v>
+      </c>
+      <c r="AL7" s="5">
+        <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="18">
+    <row r="8" spans="1:38" ht="18">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1687,11 +1767,23 @@
       <c r="AG8" s="5">
         <v>11</v>
       </c>
-      <c r="AH8" s="8" t="s">
-        <v>52</v>
+      <c r="AH8" s="5">
+        <v>11</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>11</v>
+      </c>
+      <c r="AJ8" s="5">
+        <v>11</v>
+      </c>
+      <c r="AK8" s="5">
+        <v>11</v>
+      </c>
+      <c r="AL8" s="5">
+        <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="18">
+    <row r="9" spans="1:38" ht="18">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1791,11 +1883,23 @@
       <c r="AG9" s="5">
         <v>4</v>
       </c>
-      <c r="AH9" s="8" t="s">
-        <v>53</v>
+      <c r="AH9" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI9" s="5">
+        <v>4</v>
+      </c>
+      <c r="AJ9" s="5">
+        <v>4</v>
+      </c>
+      <c r="AK9" s="5">
+        <v>4</v>
+      </c>
+      <c r="AL9" s="5">
+        <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="18">
+    <row r="10" spans="1:38" ht="18">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1895,11 +1999,23 @@
       <c r="AG10" s="5">
         <v>90</v>
       </c>
-      <c r="AH10" s="8" t="s">
-        <v>54</v>
+      <c r="AH10" s="5">
+        <v>90</v>
+      </c>
+      <c r="AI10" s="5">
+        <v>90</v>
+      </c>
+      <c r="AJ10" s="5">
+        <v>90</v>
+      </c>
+      <c r="AK10" s="5">
+        <v>90</v>
+      </c>
+      <c r="AL10" s="5">
+        <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="18">
+    <row r="11" spans="1:38" ht="18">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1999,11 +2115,23 @@
       <c r="AG11" s="5">
         <v>51</v>
       </c>
-      <c r="AH11" s="8" t="s">
-        <v>55</v>
+      <c r="AH11" s="5">
+        <v>51</v>
+      </c>
+      <c r="AI11" s="5">
+        <v>51</v>
+      </c>
+      <c r="AJ11" s="5">
+        <v>51</v>
+      </c>
+      <c r="AK11" s="5">
+        <v>51</v>
+      </c>
+      <c r="AL11" s="5">
+        <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="18">
+    <row r="12" spans="1:38" ht="18">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2103,11 +2231,23 @@
       <c r="AG12" s="5">
         <v>6</v>
       </c>
-      <c r="AH12" s="8" t="s">
-        <v>56</v>
+      <c r="AH12" s="5">
+        <v>6</v>
+      </c>
+      <c r="AI12" s="5">
+        <v>6</v>
+      </c>
+      <c r="AJ12" s="5">
+        <v>6</v>
+      </c>
+      <c r="AK12" s="5">
+        <v>6</v>
+      </c>
+      <c r="AL12" s="5">
+        <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="18">
+    <row r="13" spans="1:38" ht="18">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2207,11 +2347,23 @@
       <c r="AG13" s="5">
         <v>2</v>
       </c>
-      <c r="AH13" s="8" t="s">
-        <v>57</v>
+      <c r="AH13" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI13" s="5">
+        <v>2</v>
+      </c>
+      <c r="AJ13" s="5">
+        <v>2</v>
+      </c>
+      <c r="AK13" s="5">
+        <v>2</v>
+      </c>
+      <c r="AL13" s="5">
+        <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="18">
+    <row r="14" spans="1:38" ht="18">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2311,11 +2463,23 @@
       <c r="AG14" s="5">
         <v>3</v>
       </c>
-      <c r="AH14" s="8" t="s">
-        <v>58</v>
+      <c r="AH14" s="5">
+        <v>3</v>
+      </c>
+      <c r="AI14" s="5">
+        <v>3</v>
+      </c>
+      <c r="AJ14" s="5">
+        <v>3</v>
+      </c>
+      <c r="AK14" s="5">
+        <v>3</v>
+      </c>
+      <c r="AL14" s="5">
+        <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="18">
+    <row r="15" spans="1:38" ht="18">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2415,11 +2579,23 @@
       <c r="AG15" s="5">
         <v>18</v>
       </c>
-      <c r="AH15" s="8" t="s">
-        <v>59</v>
+      <c r="AH15" s="5">
+        <v>18</v>
+      </c>
+      <c r="AI15" s="5">
+        <v>18</v>
+      </c>
+      <c r="AJ15" s="5">
+        <v>18</v>
+      </c>
+      <c r="AK15" s="5">
+        <v>18</v>
+      </c>
+      <c r="AL15" s="5">
+        <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="18">
+    <row r="16" spans="1:38" ht="18">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2519,11 +2695,23 @@
       <c r="AG16" s="5">
         <v>2</v>
       </c>
-      <c r="AH16" s="8" t="s">
-        <v>60</v>
+      <c r="AH16" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI16" s="5">
+        <v>2</v>
+      </c>
+      <c r="AJ16" s="5">
+        <v>2</v>
+      </c>
+      <c r="AK16" s="5">
+        <v>2</v>
+      </c>
+      <c r="AL16" s="5">
+        <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="18">
+    <row r="17" spans="1:38" ht="18">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2623,11 +2811,23 @@
       <c r="AG17" s="5">
         <v>5</v>
       </c>
-      <c r="AH17" s="8" t="s">
-        <v>61</v>
+      <c r="AH17" s="5">
+        <v>5</v>
+      </c>
+      <c r="AI17" s="5">
+        <v>5</v>
+      </c>
+      <c r="AJ17" s="5">
+        <v>5</v>
+      </c>
+      <c r="AK17" s="5">
+        <v>5</v>
+      </c>
+      <c r="AL17" s="5">
+        <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="18">
+    <row r="18" spans="1:38" ht="18">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -2727,11 +2927,23 @@
       <c r="AG18" s="5">
         <v>2</v>
       </c>
-      <c r="AH18" s="8" t="s">
-        <v>62</v>
+      <c r="AH18" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI18" s="5">
+        <v>2</v>
+      </c>
+      <c r="AJ18" s="5">
+        <v>2</v>
+      </c>
+      <c r="AK18" s="5">
+        <v>2</v>
+      </c>
+      <c r="AL18" s="5">
+        <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="18">
+    <row r="19" spans="1:38" ht="18">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2831,11 +3043,23 @@
       <c r="AG19" s="5">
         <v>12</v>
       </c>
-      <c r="AH19" s="8" t="s">
-        <v>63</v>
+      <c r="AH19" s="5">
+        <v>12</v>
+      </c>
+      <c r="AI19" s="5">
+        <v>12</v>
+      </c>
+      <c r="AJ19" s="5">
+        <v>12</v>
+      </c>
+      <c r="AK19" s="5">
+        <v>12</v>
+      </c>
+      <c r="AL19" s="5">
+        <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="18">
+    <row r="20" spans="1:38" ht="18">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -2935,11 +3159,23 @@
       <c r="AG20" s="5">
         <v>0</v>
       </c>
-      <c r="AH20" s="8" t="s">
-        <v>64</v>
+      <c r="AH20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="5">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="18">
+    <row r="21" spans="1:38" ht="18">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -3039,11 +3275,23 @@
       <c r="AG21" s="5">
         <v>0</v>
       </c>
-      <c r="AH21" s="8" t="s">
-        <v>65</v>
+      <c r="AH21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="5">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="18">
+    <row r="22" spans="1:38" ht="18">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -3143,11 +3391,23 @@
       <c r="AG22" s="5">
         <v>0</v>
       </c>
-      <c r="AH22" s="8" t="s">
-        <v>66</v>
+      <c r="AH22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="5">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="18">
+    <row r="23" spans="1:38" ht="18">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -3247,11 +3507,23 @@
       <c r="AG23" s="5">
         <v>0</v>
       </c>
-      <c r="AH23" s="8" t="s">
-        <v>67</v>
+      <c r="AH23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="5">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="18">
+    <row r="24" spans="1:38" ht="18">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -3351,11 +3623,23 @@
       <c r="AG24" s="5">
         <v>0</v>
       </c>
-      <c r="AH24" s="8" t="s">
-        <v>68</v>
+      <c r="AH24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="5">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="17">
+    <row r="25" spans="1:38" ht="17">
       <c r="C25" s="1" t="s">
         <v>70</v>
       </c>
@@ -3376,7 +3660,7 @@
         <v>329</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" ref="H25:AG25" si="0">SUM(H3:H24)</f>
+        <f t="shared" ref="H25:AL25" si="0">SUM(H3:H24)</f>
         <v>339</v>
       </c>
       <c r="I25" s="1">
@@ -3479,8 +3763,25 @@
         <f t="shared" si="0"/>
         <v>429</v>
       </c>
-      <c r="AH25" s="8" t="s">
-        <v>69</v>
+      <c r="AH25" s="1">
+        <f t="shared" si="0"/>
+        <v>429</v>
+      </c>
+      <c r="AI25" s="1">
+        <f t="shared" si="0"/>
+        <v>429</v>
+      </c>
+      <c r="AJ25" s="1">
+        <f t="shared" si="0"/>
+        <v>429</v>
+      </c>
+      <c r="AK25" s="1">
+        <f t="shared" si="0"/>
+        <v>429</v>
+      </c>
+      <c r="AL25" s="1">
+        <f t="shared" si="0"/>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
